--- a/doc/mgmt/Openconfig-system_SONiC_mapping.xlsx
+++ b/doc/mgmt/Openconfig-system_SONiC_mapping.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anukul/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anukul/Desktop/SONiC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA58B53C-5B85-F04D-870B-F4C72A153465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0C5603-5422-424A-813D-BA76CCF401AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="3220" windowWidth="28040" windowHeight="17440" xr2:uid="{81CB7C93-0B4F-8B49-B65D-B3FAC13D3449}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{81CB7C93-0B4F-8B49-B65D-B3FAC13D3449}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Rev 0.1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="134">
   <si>
     <t>Openconfig Yang</t>
   </si>
@@ -86,12 +86,6 @@
     <t xml:space="preserve">              admin_state</t>
   </si>
   <si>
-    <t xml:space="preserve">    ntp-source-address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               vrf  &amp; src_intf</t>
-  </si>
-  <si>
     <t xml:space="preserve">    enable-ntp-auth</t>
   </si>
   <si>
@@ -396,13 +390,61 @@
   </si>
   <si>
     <t xml:space="preserve">     service</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>VERSION|SOFTWARE</t>
+  </si>
+  <si>
+    <t>BANNER_MESSAGE:login</t>
+  </si>
+  <si>
+    <t>BANNER_MESSAGE:motd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  login-banner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  motd-banner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  current-datatime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  up-time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  boot-time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  software-version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          network-instance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    vrf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          key-id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          NTP|global  vrf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          NTP|global  src_intf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -411,33 +453,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="16"/>
       <color rgb="FF3B3B3B"/>
-      <name val="Menlo"/>
-      <family val="2"/>
+      <name val="Times New Roman Bold"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF3B3B3B"/>
-      <name val="Menlo"/>
-      <family val="2"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman Bold"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman Bold"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -467,22 +516,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -816,667 +869,741 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74ECBB5C-9524-6641-88D0-35FCDDE5B859}">
-  <dimension ref="A1:B93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D085E869-6FAE-2547-AA24-288A774513A0}">
+  <dimension ref="A1:B104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
   <cols>
-    <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.6640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="B18" s="5"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B22" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B23" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B24" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="B26" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="5"/>
-    </row>
-    <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B27" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B28" s="5"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="B29" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="B30" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B31" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B32" s="7"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="B33" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="5"/>
-    </row>
-    <row r="26" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B34" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B35" s="7"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+      <c r="B36" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="5"/>
-    </row>
-    <row r="29" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+      <c r="B37" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B38" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B39" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="4"/>
+      <c r="B43" s="5"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B44" s="5"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="5"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+      <c r="B46" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="4"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="4"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="4"/>
+      <c r="B47" s="5"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B48" s="5"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="4"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+      <c r="B49" s="5"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="4"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+      <c r="B50" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="4"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B51" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+    <row r="52" spans="1:2">
+      <c r="A52" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" s="5"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B53" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42" s="4"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
+    <row r="54" spans="1:2">
+      <c r="A54" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B54" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
+    <row r="55" spans="1:2">
+      <c r="A55" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B56" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
+    <row r="57" spans="1:2">
+      <c r="A57" s="4"/>
+      <c r="B57" s="5"/>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B58" s="5"/>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="3"/>
-      <c r="B46" s="4"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
+      <c r="B59" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B47" s="4"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B60" s="5"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="8" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
+      <c r="B61" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B49" s="4"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B62" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" s="5"/>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="8" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
+      <c r="B64" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
+      <c r="B65" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66" s="5"/>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B52" s="4"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B55" s="4"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="6" t="s">
+      <c r="B68" s="5"/>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="6" t="s">
+      <c r="B69" s="5"/>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B57" s="4"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="6" t="s">
+      <c r="B70" s="5"/>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B58" s="4"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="6" t="s">
+      <c r="B71" s="5"/>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B59" s="4"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="6" t="s">
+      <c r="B72" s="5"/>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B60" s="4"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="6" t="s">
+      <c r="B73" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B61" s="4"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="6" t="s">
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B74" s="5"/>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="8" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="6" t="s">
+      <c r="B75" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B63" s="4"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="6" t="s">
+      <c r="B76" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="6" t="s">
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B77" s="5"/>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="8" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="6" t="s">
+      <c r="B78" s="5"/>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B66" s="4"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="6" t="s">
+      <c r="B79" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B67" s="4"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="6" t="s">
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B80" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="6" t="s">
+    <row r="81" spans="1:2">
+      <c r="A81" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B81" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="6" t="s">
+    <row r="82" spans="1:2">
+      <c r="A82" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B82" s="5"/>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="8" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="6" t="s">
+      <c r="B83" s="5"/>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B71" s="4"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="6" t="s">
+      <c r="B84" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B72" s="4"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="6" t="s">
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B85" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="6" t="s">
+    <row r="86" spans="1:2">
+      <c r="A86" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B86" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="6" t="s">
+    <row r="87" spans="1:2">
+      <c r="A87" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B87" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="6" t="s">
+    <row r="88" spans="1:2">
+      <c r="A88" s="8"/>
+      <c r="B88" s="5"/>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B89" s="5"/>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="8" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="6"/>
-      <c r="B77" s="4"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="6" t="s">
+      <c r="B90" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B78" s="4"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="6" t="s">
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B91" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="6" t="s">
+    <row r="92" spans="1:2">
+      <c r="A92" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B92" s="5"/>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="8" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="6" t="s">
+      <c r="B93" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B94" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B81" s="4"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="6" t="s">
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B83" s="4" t="s">
+      <c r="B95" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="8" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="6" t="s">
+      <c r="B96" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="6" t="s">
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B97" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="6" t="s">
+    <row r="98" spans="1:2">
+      <c r="A98" s="8"/>
+      <c r="B98" s="5"/>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B99" s="5"/>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="8" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="6"/>
-      <c r="B87" s="4"/>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="6" t="s">
+      <c r="B100" s="5"/>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B88" s="4"/>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="6" t="s">
+      <c r="B101" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B89" s="4"/>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="6" t="s">
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B102" s="5"/>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="8" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="6" t="s">
+      <c r="B103" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B91" s="4"/>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="6" t="s">
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B104" s="5" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter>&amp;R_x000D_&amp;1#&amp;"Calibri"&amp;8&amp;K000000 Cisco Confidential</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
--- a/doc/mgmt/Openconfig-system_SONiC_mapping.xlsx
+++ b/doc/mgmt/Openconfig-system_SONiC_mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anukul/Desktop/SONiC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0C5603-5422-424A-813D-BA76CCF401AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A856851-459F-2247-8630-82CC5F5AF8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{81CB7C93-0B4F-8B49-B65D-B3FAC13D3449}"/>
+    <workbookView xWindow="43520" yWindow="1240" windowWidth="30220" windowHeight="19880" xr2:uid="{81CB7C93-0B4F-8B49-B65D-B3FAC13D3449}"/>
   </bookViews>
   <sheets>
     <sheet name="Rev 0.1" sheetId="2" r:id="rId1"/>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="150">
   <si>
     <t>Openconfig Yang</t>
   </si>
   <si>
-    <t>SONiC Yang</t>
-  </si>
-  <si>
     <t>config</t>
   </si>
   <si>
@@ -434,10 +431,61 @@
     <t xml:space="preserve">           key</t>
   </si>
   <si>
-    <t xml:space="preserve">          NTP|global  vrf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          NTP|global  src_intf</t>
+    <t>Sonic Yang</t>
+  </si>
+  <si>
+    <t>Nodes</t>
+  </si>
+  <si>
+    <t>File name</t>
+  </si>
+  <si>
+    <t>DB Name</t>
+  </si>
+  <si>
+    <t>Table:Field</t>
+  </si>
+  <si>
+    <t>sonic-device_metadata.yang</t>
+  </si>
+  <si>
+    <t>CONFIG_DB</t>
+  </si>
+  <si>
+    <t>sonic-banner.yang</t>
+  </si>
+  <si>
+    <t>sonic-version.yang</t>
+  </si>
+  <si>
+    <t>sonic-dns.yang</t>
+  </si>
+  <si>
+    <t>sonic-ntp.yang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          NTP:vrf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          NTP:src_intf</t>
+  </si>
+  <si>
+    <t>sonic-ssh-server.yang</t>
+  </si>
+  <si>
+    <t>sonic-syslog.yang</t>
+  </si>
+  <si>
+    <t>sonic-system-aaa.yang</t>
+  </si>
+  <si>
+    <t>sonic-system-tacacs.yang</t>
+  </si>
+  <si>
+    <t>sonic-system-radius.yang</t>
+  </si>
+  <si>
+    <t>STATE_DB</t>
   </si>
 </sst>
 </file>
@@ -460,17 +508,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="12"/>
       <color rgb="FF3B3B3B"/>
       <name val="Times New Roman Bold"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman Bold"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman Bold"/>
     </font>
@@ -485,11 +533,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -512,30 +560,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -870,740 +1080,4050 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D085E869-6FAE-2547-AA24-288A774513A0}">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:H350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.6640625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="7.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="44.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.1640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="13" customHeight="1" thickBot="1">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D2" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
+      <c r="D5" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="4" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" ht="51">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" ht="51">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" ht="34">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" ht="34">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" ht="51">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" ht="51">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:8" ht="51">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:8" ht="34">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" ht="51">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:8" ht="34">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:8" ht="34">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="4" t="s">
+      <c r="D43" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="1:8" ht="51">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="5"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="5"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="5"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="7"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="7"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="5"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="7"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="7" t="s">
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="7"/>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="4" t="s">
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F57" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="4"/>
-      <c r="B43" s="5"/>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="5"/>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" s="5"/>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="4"/>
-      <c r="B47" s="5"/>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" s="5"/>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B49" s="5"/>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B52" s="5"/>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" s="5" t="s">
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="4" t="s">
+      <c r="D58" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F58" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="4"/>
-      <c r="B57" s="5"/>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="8" t="s">
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="5"/>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="8" t="s">
+      <c r="D61" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F61" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="17" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="8" t="s">
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B60" s="5"/>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="8" t="s">
+      <c r="D63" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F63" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="17" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="8" t="s">
+      <c r="D64" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="D66" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="17" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B63" s="5"/>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="8" t="s">
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B66" s="5"/>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="8" t="s">
+      <c r="D69" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="8" t="s">
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="5"/>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="8" t="s">
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="5"/>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="8" t="s">
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="5"/>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="8" t="s">
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="5"/>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="8" t="s">
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="5"/>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="8" t="s">
+      <c r="D75" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F75" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="17" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="8" t="s">
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="5"/>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="8" t="s">
+      <c r="D77" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F77" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="8" t="s">
+      <c r="D78" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F78" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="17" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="8" t="s">
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B77" s="5"/>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="8" t="s">
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="B78" s="5"/>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="8" t="s">
+      <c r="D81" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F81" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="17" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="8" t="s">
+      <c r="D82" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F82" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="8" t="s">
+      <c r="D83" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F83" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="17" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="8" t="s">
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B82" s="5"/>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="8" t="s">
+      <c r="D85" s="18"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="6"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B83" s="5"/>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="8" t="s">
+      <c r="D86" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F86" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="6"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="17" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="8" t="s">
+      <c r="D87" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F87" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="6"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="17" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="8" t="s">
+      <c r="D88" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F88" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="6"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="17" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="8" t="s">
+      <c r="D89" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F89" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="6"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="6"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="17" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="8"/>
-      <c r="B88" s="5"/>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="8" t="s">
+      <c r="D91" s="18"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="6"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B89" s="5"/>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="8" t="s">
+      <c r="D92" s="18"/>
+      <c r="E92" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="F92" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="6"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="17" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="8" t="s">
+      <c r="D93" s="18"/>
+      <c r="E93" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="F93" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="6"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="17" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="8" t="s">
+      <c r="D94" s="18"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="6"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B92" s="5"/>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="8" t="s">
+      <c r="D95" s="18"/>
+      <c r="E95" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="F95" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="6"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="F96" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B93" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B94" s="5" t="s">
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="6"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="17" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="8" t="s">
+      <c r="D97" s="18"/>
+      <c r="E97" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="F97" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="B95" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="8" t="s">
+      <c r="D98" s="18"/>
+      <c r="E98" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="F98" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="6"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="17" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="8" t="s">
+      <c r="D99" s="18"/>
+      <c r="E99" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="F99" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="6"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="6"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="17" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="8"/>
-      <c r="B98" s="5"/>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="8" t="s">
+      <c r="D101" s="18"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="6"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="B99" s="5"/>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="8" t="s">
+      <c r="D102" s="18"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="6"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="B100" s="5"/>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="8" t="s">
+      <c r="D103" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F103" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="6"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="17" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="8" t="s">
+      <c r="D104" s="18"/>
+      <c r="E104" s="18"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="6"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="B102" s="5"/>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="8" t="s">
+      <c r="D105" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F105" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+    </row>
+    <row r="106" spans="1:8" ht="23" thickBot="1">
+      <c r="A106" s="6"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="19" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="8" t="s">
+      <c r="D106" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F106" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="B104" s="5" t="s">
-        <v>117</v>
-      </c>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="6"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="6"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="6"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="6"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="6"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="6"/>
+      <c r="B112" s="6"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="6"/>
+      <c r="B113" s="6"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="6"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="6"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="6"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6"/>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="6"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="6"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="6"/>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="6"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="6"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="6"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="6"/>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="6"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="6"/>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="6"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="6"/>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="6"/>
+      <c r="B124" s="6"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="6"/>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="6"/>
+      <c r="B125" s="6"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="6"/>
+      <c r="B126" s="6"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="6"/>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="6"/>
+      <c r="B127" s="6"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="6"/>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="6"/>
+      <c r="B128" s="6"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="6"/>
+      <c r="G128" s="6"/>
+      <c r="H128" s="6"/>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="6"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="6"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="6"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="6"/>
+      <c r="B131" s="6"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="6"/>
+      <c r="H131" s="6"/>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="6"/>
+      <c r="B132" s="6"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="6"/>
+      <c r="G132" s="6"/>
+      <c r="H132" s="6"/>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="6"/>
+      <c r="B133" s="6"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="6"/>
+      <c r="B134" s="6"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="6"/>
+      <c r="G134" s="6"/>
+      <c r="H134" s="6"/>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="6"/>
+      <c r="B135" s="6"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="6"/>
+      <c r="H135" s="6"/>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="6"/>
+      <c r="B136" s="6"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6"/>
+      <c r="H136" s="6"/>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="6"/>
+      <c r="B137" s="6"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="6"/>
+      <c r="G137" s="6"/>
+      <c r="H137" s="6"/>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="6"/>
+      <c r="B138" s="6"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="6"/>
+      <c r="H138" s="6"/>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="6"/>
+      <c r="B139" s="6"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="6"/>
+      <c r="G139" s="6"/>
+      <c r="H139" s="6"/>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="6"/>
+      <c r="B140" s="6"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="6"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="6"/>
+      <c r="B141" s="6"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="6"/>
+      <c r="G141" s="6"/>
+      <c r="H141" s="6"/>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="6"/>
+      <c r="B142" s="6"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="6"/>
+      <c r="G142" s="6"/>
+      <c r="H142" s="6"/>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="6"/>
+      <c r="B143" s="6"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="7"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="6"/>
+      <c r="B144" s="6"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="7"/>
+      <c r="F144" s="6"/>
+      <c r="G144" s="6"/>
+      <c r="H144" s="6"/>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="6"/>
+      <c r="B145" s="6"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="7"/>
+      <c r="F145" s="6"/>
+      <c r="G145" s="6"/>
+      <c r="H145" s="6"/>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="6"/>
+      <c r="B146" s="6"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="7"/>
+      <c r="F146" s="6"/>
+      <c r="G146" s="6"/>
+      <c r="H146" s="6"/>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="6"/>
+      <c r="B147" s="6"/>
+      <c r="C147" s="6"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="7"/>
+      <c r="F147" s="6"/>
+      <c r="G147" s="6"/>
+      <c r="H147" s="6"/>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="6"/>
+      <c r="B148" s="6"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="7"/>
+      <c r="E148" s="7"/>
+      <c r="F148" s="6"/>
+      <c r="G148" s="6"/>
+      <c r="H148" s="6"/>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="6"/>
+      <c r="B149" s="6"/>
+      <c r="C149" s="6"/>
+      <c r="D149" s="7"/>
+      <c r="E149" s="7"/>
+      <c r="F149" s="6"/>
+      <c r="G149" s="6"/>
+      <c r="H149" s="6"/>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="6"/>
+      <c r="B150" s="6"/>
+      <c r="C150" s="6"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="7"/>
+      <c r="F150" s="6"/>
+      <c r="G150" s="6"/>
+      <c r="H150" s="6"/>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="6"/>
+      <c r="B151" s="6"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="7"/>
+      <c r="E151" s="7"/>
+      <c r="F151" s="6"/>
+      <c r="G151" s="6"/>
+      <c r="H151" s="6"/>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" s="6"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="7"/>
+      <c r="E152" s="7"/>
+      <c r="F152" s="6"/>
+      <c r="G152" s="6"/>
+      <c r="H152" s="6"/>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" s="6"/>
+      <c r="B153" s="6"/>
+      <c r="C153" s="6"/>
+      <c r="D153" s="7"/>
+      <c r="E153" s="7"/>
+      <c r="F153" s="6"/>
+      <c r="G153" s="6"/>
+      <c r="H153" s="6"/>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="6"/>
+      <c r="B154" s="6"/>
+      <c r="C154" s="6"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="7"/>
+      <c r="F154" s="6"/>
+      <c r="G154" s="6"/>
+      <c r="H154" s="6"/>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="6"/>
+      <c r="B155" s="6"/>
+      <c r="C155" s="6"/>
+      <c r="D155" s="7"/>
+      <c r="E155" s="7"/>
+      <c r="F155" s="6"/>
+      <c r="G155" s="6"/>
+      <c r="H155" s="6"/>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="6"/>
+      <c r="B156" s="6"/>
+      <c r="C156" s="6"/>
+      <c r="D156" s="7"/>
+      <c r="E156" s="7"/>
+      <c r="F156" s="6"/>
+      <c r="G156" s="6"/>
+      <c r="H156" s="6"/>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="6"/>
+      <c r="B157" s="6"/>
+      <c r="C157" s="6"/>
+      <c r="D157" s="7"/>
+      <c r="E157" s="7"/>
+      <c r="F157" s="6"/>
+      <c r="G157" s="6"/>
+      <c r="H157" s="6"/>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="6"/>
+      <c r="B158" s="6"/>
+      <c r="C158" s="6"/>
+      <c r="D158" s="7"/>
+      <c r="E158" s="7"/>
+      <c r="F158" s="6"/>
+      <c r="G158" s="6"/>
+      <c r="H158" s="6"/>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="6"/>
+      <c r="B159" s="6"/>
+      <c r="C159" s="6"/>
+      <c r="D159" s="7"/>
+      <c r="E159" s="7"/>
+      <c r="F159" s="6"/>
+      <c r="G159" s="6"/>
+      <c r="H159" s="6"/>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="6"/>
+      <c r="B160" s="6"/>
+      <c r="C160" s="6"/>
+      <c r="D160" s="7"/>
+      <c r="E160" s="7"/>
+      <c r="F160" s="6"/>
+      <c r="G160" s="6"/>
+      <c r="H160" s="6"/>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="6"/>
+      <c r="B161" s="6"/>
+      <c r="C161" s="6"/>
+      <c r="D161" s="7"/>
+      <c r="E161" s="7"/>
+      <c r="F161" s="6"/>
+      <c r="G161" s="6"/>
+      <c r="H161" s="6"/>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="6"/>
+      <c r="B162" s="6"/>
+      <c r="C162" s="6"/>
+      <c r="D162" s="7"/>
+      <c r="E162" s="7"/>
+      <c r="F162" s="6"/>
+      <c r="G162" s="6"/>
+      <c r="H162" s="6"/>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="6"/>
+      <c r="B163" s="6"/>
+      <c r="C163" s="6"/>
+      <c r="D163" s="7"/>
+      <c r="E163" s="7"/>
+      <c r="F163" s="6"/>
+      <c r="G163" s="6"/>
+      <c r="H163" s="6"/>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="6"/>
+      <c r="B164" s="6"/>
+      <c r="C164" s="6"/>
+      <c r="D164" s="7"/>
+      <c r="E164" s="7"/>
+      <c r="F164" s="6"/>
+      <c r="G164" s="6"/>
+      <c r="H164" s="6"/>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="6"/>
+      <c r="B165" s="6"/>
+      <c r="C165" s="6"/>
+      <c r="D165" s="7"/>
+      <c r="E165" s="7"/>
+      <c r="F165" s="6"/>
+      <c r="G165" s="6"/>
+      <c r="H165" s="6"/>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="6"/>
+      <c r="B166" s="6"/>
+      <c r="C166" s="6"/>
+      <c r="D166" s="7"/>
+      <c r="E166" s="7"/>
+      <c r="F166" s="6"/>
+      <c r="G166" s="6"/>
+      <c r="H166" s="6"/>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="6"/>
+      <c r="B167" s="6"/>
+      <c r="C167" s="6"/>
+      <c r="D167" s="7"/>
+      <c r="E167" s="7"/>
+      <c r="F167" s="6"/>
+      <c r="G167" s="6"/>
+      <c r="H167" s="6"/>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" s="6"/>
+      <c r="B168" s="6"/>
+      <c r="C168" s="6"/>
+      <c r="D168" s="7"/>
+      <c r="E168" s="7"/>
+      <c r="F168" s="6"/>
+      <c r="G168" s="6"/>
+      <c r="H168" s="6"/>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" s="6"/>
+      <c r="B169" s="6"/>
+      <c r="C169" s="6"/>
+      <c r="D169" s="7"/>
+      <c r="E169" s="7"/>
+      <c r="F169" s="6"/>
+      <c r="G169" s="6"/>
+      <c r="H169" s="6"/>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" s="6"/>
+      <c r="B170" s="6"/>
+      <c r="C170" s="6"/>
+      <c r="D170" s="7"/>
+      <c r="E170" s="7"/>
+      <c r="F170" s="6"/>
+      <c r="G170" s="6"/>
+      <c r="H170" s="6"/>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" s="6"/>
+      <c r="B171" s="6"/>
+      <c r="C171" s="6"/>
+      <c r="D171" s="7"/>
+      <c r="E171" s="7"/>
+      <c r="F171" s="6"/>
+      <c r="G171" s="6"/>
+      <c r="H171" s="6"/>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" s="6"/>
+      <c r="B172" s="6"/>
+      <c r="C172" s="6"/>
+      <c r="D172" s="7"/>
+      <c r="E172" s="7"/>
+      <c r="F172" s="6"/>
+      <c r="G172" s="6"/>
+      <c r="H172" s="6"/>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" s="6"/>
+      <c r="B173" s="6"/>
+      <c r="C173" s="6"/>
+      <c r="D173" s="7"/>
+      <c r="E173" s="7"/>
+      <c r="F173" s="6"/>
+      <c r="G173" s="6"/>
+      <c r="H173" s="6"/>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" s="6"/>
+      <c r="B174" s="6"/>
+      <c r="C174" s="6"/>
+      <c r="D174" s="7"/>
+      <c r="E174" s="7"/>
+      <c r="F174" s="6"/>
+      <c r="G174" s="6"/>
+      <c r="H174" s="6"/>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" s="6"/>
+      <c r="B175" s="6"/>
+      <c r="C175" s="6"/>
+      <c r="D175" s="7"/>
+      <c r="E175" s="7"/>
+      <c r="F175" s="6"/>
+      <c r="G175" s="6"/>
+      <c r="H175" s="6"/>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" s="6"/>
+      <c r="B176" s="6"/>
+      <c r="C176" s="6"/>
+      <c r="D176" s="7"/>
+      <c r="E176" s="7"/>
+      <c r="F176" s="6"/>
+      <c r="G176" s="6"/>
+      <c r="H176" s="6"/>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" s="6"/>
+      <c r="B177" s="6"/>
+      <c r="C177" s="6"/>
+      <c r="D177" s="7"/>
+      <c r="E177" s="7"/>
+      <c r="F177" s="6"/>
+      <c r="G177" s="6"/>
+      <c r="H177" s="6"/>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" s="6"/>
+      <c r="B178" s="6"/>
+      <c r="C178" s="6"/>
+      <c r="D178" s="7"/>
+      <c r="E178" s="7"/>
+      <c r="F178" s="6"/>
+      <c r="G178" s="6"/>
+      <c r="H178" s="6"/>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" s="6"/>
+      <c r="B179" s="6"/>
+      <c r="C179" s="6"/>
+      <c r="D179" s="7"/>
+      <c r="E179" s="7"/>
+      <c r="F179" s="6"/>
+      <c r="G179" s="6"/>
+      <c r="H179" s="6"/>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" s="6"/>
+      <c r="B180" s="6"/>
+      <c r="C180" s="6"/>
+      <c r="D180" s="7"/>
+      <c r="E180" s="7"/>
+      <c r="F180" s="6"/>
+      <c r="G180" s="6"/>
+      <c r="H180" s="6"/>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" s="6"/>
+      <c r="B181" s="6"/>
+      <c r="C181" s="6"/>
+      <c r="D181" s="7"/>
+      <c r="E181" s="7"/>
+      <c r="F181" s="6"/>
+      <c r="G181" s="6"/>
+      <c r="H181" s="6"/>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" s="6"/>
+      <c r="B182" s="6"/>
+      <c r="C182" s="6"/>
+      <c r="D182" s="7"/>
+      <c r="E182" s="7"/>
+      <c r="F182" s="6"/>
+      <c r="G182" s="6"/>
+      <c r="H182" s="6"/>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" s="6"/>
+      <c r="B183" s="6"/>
+      <c r="C183" s="6"/>
+      <c r="D183" s="7"/>
+      <c r="E183" s="7"/>
+      <c r="F183" s="6"/>
+      <c r="G183" s="6"/>
+      <c r="H183" s="6"/>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" s="6"/>
+      <c r="B184" s="6"/>
+      <c r="C184" s="6"/>
+      <c r="D184" s="7"/>
+      <c r="E184" s="7"/>
+      <c r="F184" s="6"/>
+      <c r="G184" s="6"/>
+      <c r="H184" s="6"/>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" s="6"/>
+      <c r="B185" s="6"/>
+      <c r="C185" s="6"/>
+      <c r="D185" s="7"/>
+      <c r="E185" s="7"/>
+      <c r="F185" s="6"/>
+      <c r="G185" s="6"/>
+      <c r="H185" s="6"/>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" s="6"/>
+      <c r="B186" s="6"/>
+      <c r="C186" s="6"/>
+      <c r="D186" s="7"/>
+      <c r="E186" s="7"/>
+      <c r="F186" s="6"/>
+      <c r="G186" s="6"/>
+      <c r="H186" s="6"/>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" s="6"/>
+      <c r="B187" s="6"/>
+      <c r="C187" s="6"/>
+      <c r="D187" s="7"/>
+      <c r="E187" s="7"/>
+      <c r="F187" s="6"/>
+      <c r="G187" s="6"/>
+      <c r="H187" s="6"/>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" s="6"/>
+      <c r="B188" s="6"/>
+      <c r="C188" s="6"/>
+      <c r="D188" s="7"/>
+      <c r="E188" s="7"/>
+      <c r="F188" s="6"/>
+      <c r="G188" s="6"/>
+      <c r="H188" s="6"/>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" s="6"/>
+      <c r="B189" s="6"/>
+      <c r="C189" s="6"/>
+      <c r="D189" s="7"/>
+      <c r="E189" s="7"/>
+      <c r="F189" s="6"/>
+      <c r="G189" s="6"/>
+      <c r="H189" s="6"/>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190" s="6"/>
+      <c r="B190" s="6"/>
+      <c r="C190" s="6"/>
+      <c r="D190" s="7"/>
+      <c r="E190" s="7"/>
+      <c r="F190" s="6"/>
+      <c r="G190" s="6"/>
+      <c r="H190" s="6"/>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" s="6"/>
+      <c r="B191" s="6"/>
+      <c r="C191" s="6"/>
+      <c r="D191" s="7"/>
+      <c r="E191" s="7"/>
+      <c r="F191" s="6"/>
+      <c r="G191" s="6"/>
+      <c r="H191" s="6"/>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192" s="6"/>
+      <c r="B192" s="6"/>
+      <c r="C192" s="6"/>
+      <c r="D192" s="7"/>
+      <c r="E192" s="7"/>
+      <c r="F192" s="6"/>
+      <c r="G192" s="6"/>
+      <c r="H192" s="6"/>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" s="6"/>
+      <c r="B193" s="6"/>
+      <c r="C193" s="6"/>
+      <c r="D193" s="7"/>
+      <c r="E193" s="7"/>
+      <c r="F193" s="6"/>
+      <c r="G193" s="6"/>
+      <c r="H193" s="6"/>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" s="6"/>
+      <c r="B194" s="6"/>
+      <c r="C194" s="6"/>
+      <c r="D194" s="7"/>
+      <c r="E194" s="7"/>
+      <c r="F194" s="6"/>
+      <c r="G194" s="6"/>
+      <c r="H194" s="6"/>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195" s="6"/>
+      <c r="B195" s="6"/>
+      <c r="C195" s="6"/>
+      <c r="D195" s="7"/>
+      <c r="E195" s="7"/>
+      <c r="F195" s="6"/>
+      <c r="G195" s="6"/>
+      <c r="H195" s="6"/>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" s="6"/>
+      <c r="B196" s="6"/>
+      <c r="C196" s="6"/>
+      <c r="D196" s="7"/>
+      <c r="E196" s="7"/>
+      <c r="F196" s="6"/>
+      <c r="G196" s="6"/>
+      <c r="H196" s="6"/>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" s="6"/>
+      <c r="B197" s="6"/>
+      <c r="C197" s="6"/>
+      <c r="D197" s="7"/>
+      <c r="E197" s="7"/>
+      <c r="F197" s="6"/>
+      <c r="G197" s="6"/>
+      <c r="H197" s="6"/>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" s="6"/>
+      <c r="B198" s="6"/>
+      <c r="C198" s="6"/>
+      <c r="D198" s="7"/>
+      <c r="E198" s="7"/>
+      <c r="F198" s="6"/>
+      <c r="G198" s="6"/>
+      <c r="H198" s="6"/>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199" s="6"/>
+      <c r="B199" s="6"/>
+      <c r="C199" s="6"/>
+      <c r="D199" s="7"/>
+      <c r="E199" s="7"/>
+      <c r="F199" s="6"/>
+      <c r="G199" s="6"/>
+      <c r="H199" s="6"/>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" s="6"/>
+      <c r="B200" s="6"/>
+      <c r="C200" s="6"/>
+      <c r="D200" s="7"/>
+      <c r="E200" s="7"/>
+      <c r="F200" s="6"/>
+      <c r="G200" s="6"/>
+      <c r="H200" s="6"/>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201" s="6"/>
+      <c r="B201" s="6"/>
+      <c r="C201" s="6"/>
+      <c r="D201" s="7"/>
+      <c r="E201" s="7"/>
+      <c r="F201" s="6"/>
+      <c r="G201" s="6"/>
+      <c r="H201" s="6"/>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" s="6"/>
+      <c r="B202" s="6"/>
+      <c r="C202" s="6"/>
+      <c r="D202" s="7"/>
+      <c r="E202" s="7"/>
+      <c r="F202" s="6"/>
+      <c r="G202" s="6"/>
+      <c r="H202" s="6"/>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" s="6"/>
+      <c r="B203" s="6"/>
+      <c r="C203" s="6"/>
+      <c r="D203" s="7"/>
+      <c r="E203" s="7"/>
+      <c r="F203" s="6"/>
+      <c r="G203" s="6"/>
+      <c r="H203" s="6"/>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204" s="6"/>
+      <c r="B204" s="6"/>
+      <c r="C204" s="6"/>
+      <c r="D204" s="7"/>
+      <c r="E204" s="7"/>
+      <c r="F204" s="6"/>
+      <c r="G204" s="6"/>
+      <c r="H204" s="6"/>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205" s="6"/>
+      <c r="B205" s="6"/>
+      <c r="C205" s="6"/>
+      <c r="D205" s="7"/>
+      <c r="E205" s="7"/>
+      <c r="F205" s="6"/>
+      <c r="G205" s="6"/>
+      <c r="H205" s="6"/>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206" s="6"/>
+      <c r="B206" s="6"/>
+      <c r="C206" s="6"/>
+      <c r="D206" s="7"/>
+      <c r="E206" s="7"/>
+      <c r="F206" s="6"/>
+      <c r="G206" s="6"/>
+      <c r="H206" s="6"/>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207" s="6"/>
+      <c r="B207" s="6"/>
+      <c r="C207" s="6"/>
+      <c r="D207" s="7"/>
+      <c r="E207" s="7"/>
+      <c r="F207" s="6"/>
+      <c r="G207" s="6"/>
+      <c r="H207" s="6"/>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208" s="6"/>
+      <c r="B208" s="6"/>
+      <c r="C208" s="6"/>
+      <c r="D208" s="7"/>
+      <c r="E208" s="7"/>
+      <c r="F208" s="6"/>
+      <c r="G208" s="6"/>
+      <c r="H208" s="6"/>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209" s="6"/>
+      <c r="B209" s="6"/>
+      <c r="C209" s="6"/>
+      <c r="D209" s="7"/>
+      <c r="E209" s="7"/>
+      <c r="F209" s="6"/>
+      <c r="G209" s="6"/>
+      <c r="H209" s="6"/>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" s="6"/>
+      <c r="B210" s="6"/>
+      <c r="C210" s="6"/>
+      <c r="D210" s="7"/>
+      <c r="E210" s="7"/>
+      <c r="F210" s="6"/>
+      <c r="G210" s="6"/>
+      <c r="H210" s="6"/>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211" s="6"/>
+      <c r="B211" s="6"/>
+      <c r="C211" s="6"/>
+      <c r="D211" s="7"/>
+      <c r="E211" s="7"/>
+      <c r="F211" s="6"/>
+      <c r="G211" s="6"/>
+      <c r="H211" s="6"/>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212" s="6"/>
+      <c r="B212" s="6"/>
+      <c r="C212" s="6"/>
+      <c r="D212" s="7"/>
+      <c r="E212" s="7"/>
+      <c r="F212" s="6"/>
+      <c r="G212" s="6"/>
+      <c r="H212" s="6"/>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213" s="6"/>
+      <c r="B213" s="6"/>
+      <c r="C213" s="6"/>
+      <c r="D213" s="7"/>
+      <c r="E213" s="7"/>
+      <c r="F213" s="6"/>
+      <c r="G213" s="6"/>
+      <c r="H213" s="6"/>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214" s="6"/>
+      <c r="B214" s="6"/>
+      <c r="C214" s="6"/>
+      <c r="D214" s="7"/>
+      <c r="E214" s="7"/>
+      <c r="F214" s="6"/>
+      <c r="G214" s="6"/>
+      <c r="H214" s="6"/>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215" s="6"/>
+      <c r="B215" s="6"/>
+      <c r="C215" s="6"/>
+      <c r="D215" s="7"/>
+      <c r="E215" s="7"/>
+      <c r="F215" s="6"/>
+      <c r="G215" s="6"/>
+      <c r="H215" s="6"/>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216" s="6"/>
+      <c r="B216" s="6"/>
+      <c r="C216" s="6"/>
+      <c r="D216" s="7"/>
+      <c r="E216" s="7"/>
+      <c r="F216" s="6"/>
+      <c r="G216" s="6"/>
+      <c r="H216" s="6"/>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217" s="6"/>
+      <c r="B217" s="6"/>
+      <c r="C217" s="6"/>
+      <c r="D217" s="7"/>
+      <c r="E217" s="7"/>
+      <c r="F217" s="6"/>
+      <c r="G217" s="6"/>
+      <c r="H217" s="6"/>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218" s="6"/>
+      <c r="B218" s="6"/>
+      <c r="C218" s="6"/>
+      <c r="D218" s="7"/>
+      <c r="E218" s="7"/>
+      <c r="F218" s="6"/>
+      <c r="G218" s="6"/>
+      <c r="H218" s="6"/>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219" s="6"/>
+      <c r="B219" s="6"/>
+      <c r="C219" s="6"/>
+      <c r="D219" s="7"/>
+      <c r="E219" s="7"/>
+      <c r="F219" s="6"/>
+      <c r="G219" s="6"/>
+      <c r="H219" s="6"/>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220" s="6"/>
+      <c r="B220" s="6"/>
+      <c r="C220" s="6"/>
+      <c r="D220" s="7"/>
+      <c r="E220" s="7"/>
+      <c r="F220" s="6"/>
+      <c r="G220" s="6"/>
+      <c r="H220" s="6"/>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221" s="6"/>
+      <c r="B221" s="6"/>
+      <c r="C221" s="6"/>
+      <c r="D221" s="7"/>
+      <c r="E221" s="7"/>
+      <c r="F221" s="6"/>
+      <c r="G221" s="6"/>
+      <c r="H221" s="6"/>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222" s="6"/>
+      <c r="B222" s="6"/>
+      <c r="C222" s="6"/>
+      <c r="D222" s="7"/>
+      <c r="E222" s="7"/>
+      <c r="F222" s="6"/>
+      <c r="G222" s="6"/>
+      <c r="H222" s="6"/>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223" s="6"/>
+      <c r="B223" s="6"/>
+      <c r="C223" s="6"/>
+      <c r="D223" s="7"/>
+      <c r="E223" s="7"/>
+      <c r="F223" s="6"/>
+      <c r="G223" s="6"/>
+      <c r="H223" s="6"/>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224" s="6"/>
+      <c r="B224" s="6"/>
+      <c r="C224" s="6"/>
+      <c r="D224" s="7"/>
+      <c r="E224" s="7"/>
+      <c r="F224" s="6"/>
+      <c r="G224" s="6"/>
+      <c r="H224" s="6"/>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="A225" s="6"/>
+      <c r="B225" s="6"/>
+      <c r="C225" s="6"/>
+      <c r="D225" s="7"/>
+      <c r="E225" s="7"/>
+      <c r="F225" s="6"/>
+      <c r="G225" s="6"/>
+      <c r="H225" s="6"/>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226" s="6"/>
+      <c r="B226" s="6"/>
+      <c r="C226" s="6"/>
+      <c r="D226" s="7"/>
+      <c r="E226" s="7"/>
+      <c r="F226" s="6"/>
+      <c r="G226" s="6"/>
+      <c r="H226" s="6"/>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="A227" s="6"/>
+      <c r="B227" s="6"/>
+      <c r="C227" s="6"/>
+      <c r="D227" s="7"/>
+      <c r="E227" s="7"/>
+      <c r="F227" s="6"/>
+      <c r="G227" s="6"/>
+      <c r="H227" s="6"/>
+    </row>
+    <row r="228" spans="1:8">
+      <c r="A228" s="6"/>
+      <c r="B228" s="6"/>
+      <c r="C228" s="6"/>
+      <c r="D228" s="7"/>
+      <c r="E228" s="7"/>
+      <c r="F228" s="6"/>
+      <c r="G228" s="6"/>
+      <c r="H228" s="6"/>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="A229" s="6"/>
+      <c r="B229" s="6"/>
+      <c r="C229" s="6"/>
+      <c r="D229" s="7"/>
+      <c r="E229" s="7"/>
+      <c r="F229" s="6"/>
+      <c r="G229" s="6"/>
+      <c r="H229" s="6"/>
+    </row>
+    <row r="230" spans="1:8">
+      <c r="A230" s="6"/>
+      <c r="B230" s="6"/>
+      <c r="C230" s="6"/>
+      <c r="D230" s="7"/>
+      <c r="E230" s="7"/>
+      <c r="F230" s="6"/>
+      <c r="G230" s="6"/>
+      <c r="H230" s="6"/>
+    </row>
+    <row r="231" spans="1:8">
+      <c r="A231" s="6"/>
+      <c r="B231" s="6"/>
+      <c r="C231" s="6"/>
+      <c r="D231" s="7"/>
+      <c r="E231" s="7"/>
+      <c r="F231" s="6"/>
+      <c r="G231" s="6"/>
+      <c r="H231" s="6"/>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="A232" s="6"/>
+      <c r="B232" s="6"/>
+      <c r="C232" s="6"/>
+      <c r="D232" s="7"/>
+      <c r="E232" s="7"/>
+      <c r="F232" s="6"/>
+      <c r="G232" s="6"/>
+      <c r="H232" s="6"/>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233" s="6"/>
+      <c r="B233" s="6"/>
+      <c r="C233" s="6"/>
+      <c r="D233" s="7"/>
+      <c r="E233" s="7"/>
+      <c r="F233" s="6"/>
+      <c r="G233" s="6"/>
+      <c r="H233" s="6"/>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="A234" s="6"/>
+      <c r="B234" s="6"/>
+      <c r="C234" s="6"/>
+      <c r="D234" s="7"/>
+      <c r="E234" s="7"/>
+      <c r="F234" s="6"/>
+      <c r="G234" s="6"/>
+      <c r="H234" s="6"/>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="A235" s="6"/>
+      <c r="B235" s="6"/>
+      <c r="C235" s="6"/>
+      <c r="D235" s="7"/>
+      <c r="E235" s="7"/>
+      <c r="F235" s="6"/>
+      <c r="G235" s="6"/>
+      <c r="H235" s="6"/>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="A236" s="6"/>
+      <c r="B236" s="6"/>
+      <c r="C236" s="6"/>
+      <c r="D236" s="7"/>
+      <c r="E236" s="7"/>
+      <c r="F236" s="6"/>
+      <c r="G236" s="6"/>
+      <c r="H236" s="6"/>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="A237" s="6"/>
+      <c r="B237" s="6"/>
+      <c r="C237" s="6"/>
+      <c r="D237" s="7"/>
+      <c r="E237" s="7"/>
+      <c r="F237" s="6"/>
+      <c r="G237" s="6"/>
+      <c r="H237" s="6"/>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="A238" s="6"/>
+      <c r="B238" s="6"/>
+      <c r="C238" s="6"/>
+      <c r="D238" s="7"/>
+      <c r="E238" s="7"/>
+      <c r="F238" s="6"/>
+      <c r="G238" s="6"/>
+      <c r="H238" s="6"/>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="A239" s="6"/>
+      <c r="B239" s="6"/>
+      <c r="C239" s="6"/>
+      <c r="D239" s="7"/>
+      <c r="E239" s="7"/>
+      <c r="F239" s="6"/>
+      <c r="G239" s="6"/>
+      <c r="H239" s="6"/>
+    </row>
+    <row r="240" spans="1:8">
+      <c r="A240" s="6"/>
+      <c r="B240" s="6"/>
+      <c r="C240" s="6"/>
+      <c r="D240" s="7"/>
+      <c r="E240" s="7"/>
+      <c r="F240" s="6"/>
+      <c r="G240" s="6"/>
+      <c r="H240" s="6"/>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="A241" s="6"/>
+      <c r="B241" s="6"/>
+      <c r="C241" s="6"/>
+      <c r="D241" s="7"/>
+      <c r="E241" s="7"/>
+      <c r="F241" s="6"/>
+      <c r="G241" s="6"/>
+      <c r="H241" s="6"/>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="A242" s="6"/>
+      <c r="B242" s="6"/>
+      <c r="C242" s="6"/>
+      <c r="D242" s="7"/>
+      <c r="E242" s="7"/>
+      <c r="F242" s="6"/>
+      <c r="G242" s="6"/>
+      <c r="H242" s="6"/>
+    </row>
+    <row r="243" spans="1:8">
+      <c r="A243" s="6"/>
+      <c r="B243" s="6"/>
+      <c r="C243" s="6"/>
+      <c r="D243" s="7"/>
+      <c r="E243" s="7"/>
+      <c r="F243" s="6"/>
+      <c r="G243" s="6"/>
+      <c r="H243" s="6"/>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="A244" s="6"/>
+      <c r="B244" s="6"/>
+      <c r="C244" s="6"/>
+      <c r="D244" s="7"/>
+      <c r="E244" s="7"/>
+      <c r="F244" s="6"/>
+      <c r="G244" s="6"/>
+      <c r="H244" s="6"/>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="A245" s="6"/>
+      <c r="B245" s="6"/>
+      <c r="C245" s="6"/>
+      <c r="D245" s="7"/>
+      <c r="E245" s="7"/>
+      <c r="F245" s="6"/>
+      <c r="G245" s="6"/>
+      <c r="H245" s="6"/>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246" s="6"/>
+      <c r="B246" s="6"/>
+      <c r="C246" s="6"/>
+      <c r="D246" s="7"/>
+      <c r="E246" s="7"/>
+      <c r="F246" s="6"/>
+      <c r="G246" s="6"/>
+      <c r="H246" s="6"/>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="A247" s="6"/>
+      <c r="B247" s="6"/>
+      <c r="C247" s="6"/>
+      <c r="D247" s="7"/>
+      <c r="E247" s="7"/>
+      <c r="F247" s="6"/>
+      <c r="G247" s="6"/>
+      <c r="H247" s="6"/>
+    </row>
+    <row r="248" spans="1:8">
+      <c r="A248" s="6"/>
+      <c r="B248" s="6"/>
+      <c r="C248" s="6"/>
+      <c r="D248" s="7"/>
+      <c r="E248" s="7"/>
+      <c r="F248" s="6"/>
+      <c r="G248" s="6"/>
+      <c r="H248" s="6"/>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" s="6"/>
+      <c r="B249" s="6"/>
+      <c r="C249" s="6"/>
+      <c r="D249" s="7"/>
+      <c r="E249" s="7"/>
+      <c r="F249" s="6"/>
+      <c r="G249" s="6"/>
+      <c r="H249" s="6"/>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="A250" s="6"/>
+      <c r="B250" s="6"/>
+      <c r="C250" s="6"/>
+      <c r="D250" s="7"/>
+      <c r="E250" s="7"/>
+      <c r="F250" s="6"/>
+      <c r="G250" s="6"/>
+      <c r="H250" s="6"/>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="A251" s="6"/>
+      <c r="B251" s="6"/>
+      <c r="C251" s="6"/>
+      <c r="D251" s="7"/>
+      <c r="E251" s="7"/>
+      <c r="F251" s="6"/>
+      <c r="G251" s="6"/>
+      <c r="H251" s="6"/>
+    </row>
+    <row r="252" spans="1:8">
+      <c r="A252" s="6"/>
+      <c r="B252" s="6"/>
+      <c r="C252" s="6"/>
+      <c r="D252" s="7"/>
+      <c r="E252" s="7"/>
+      <c r="F252" s="6"/>
+      <c r="G252" s="6"/>
+      <c r="H252" s="6"/>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="A253" s="6"/>
+      <c r="B253" s="6"/>
+      <c r="C253" s="6"/>
+      <c r="D253" s="7"/>
+      <c r="E253" s="7"/>
+      <c r="F253" s="6"/>
+      <c r="G253" s="6"/>
+      <c r="H253" s="6"/>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="A254" s="6"/>
+      <c r="B254" s="6"/>
+      <c r="C254" s="6"/>
+      <c r="D254" s="7"/>
+      <c r="E254" s="7"/>
+      <c r="F254" s="6"/>
+      <c r="G254" s="6"/>
+      <c r="H254" s="6"/>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="A255" s="6"/>
+      <c r="B255" s="6"/>
+      <c r="C255" s="6"/>
+      <c r="D255" s="7"/>
+      <c r="E255" s="7"/>
+      <c r="F255" s="6"/>
+      <c r="G255" s="6"/>
+      <c r="H255" s="6"/>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="A256" s="6"/>
+      <c r="B256" s="6"/>
+      <c r="C256" s="6"/>
+      <c r="D256" s="7"/>
+      <c r="E256" s="7"/>
+      <c r="F256" s="6"/>
+      <c r="G256" s="6"/>
+      <c r="H256" s="6"/>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="A257" s="6"/>
+      <c r="B257" s="6"/>
+      <c r="C257" s="6"/>
+      <c r="D257" s="7"/>
+      <c r="E257" s="7"/>
+      <c r="F257" s="6"/>
+      <c r="G257" s="6"/>
+      <c r="H257" s="6"/>
+    </row>
+    <row r="258" spans="1:8">
+      <c r="A258" s="6"/>
+      <c r="B258" s="6"/>
+      <c r="C258" s="6"/>
+      <c r="D258" s="7"/>
+      <c r="E258" s="7"/>
+      <c r="F258" s="6"/>
+      <c r="G258" s="6"/>
+      <c r="H258" s="6"/>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="A259" s="6"/>
+      <c r="B259" s="6"/>
+      <c r="C259" s="6"/>
+      <c r="D259" s="7"/>
+      <c r="E259" s="7"/>
+      <c r="F259" s="6"/>
+      <c r="G259" s="6"/>
+      <c r="H259" s="6"/>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="A260" s="6"/>
+      <c r="B260" s="6"/>
+      <c r="C260" s="6"/>
+      <c r="D260" s="7"/>
+      <c r="E260" s="7"/>
+      <c r="F260" s="6"/>
+      <c r="G260" s="6"/>
+      <c r="H260" s="6"/>
+    </row>
+    <row r="261" spans="1:8">
+      <c r="A261" s="6"/>
+      <c r="B261" s="6"/>
+      <c r="C261" s="6"/>
+      <c r="D261" s="7"/>
+      <c r="E261" s="7"/>
+      <c r="F261" s="6"/>
+      <c r="G261" s="6"/>
+      <c r="H261" s="6"/>
+    </row>
+    <row r="262" spans="1:8">
+      <c r="A262" s="6"/>
+      <c r="B262" s="6"/>
+      <c r="C262" s="6"/>
+      <c r="D262" s="7"/>
+      <c r="E262" s="7"/>
+      <c r="F262" s="6"/>
+      <c r="G262" s="6"/>
+      <c r="H262" s="6"/>
+    </row>
+    <row r="263" spans="1:8">
+      <c r="A263" s="6"/>
+      <c r="B263" s="6"/>
+      <c r="C263" s="6"/>
+      <c r="D263" s="7"/>
+      <c r="E263" s="7"/>
+      <c r="F263" s="6"/>
+      <c r="G263" s="6"/>
+      <c r="H263" s="6"/>
+    </row>
+    <row r="264" spans="1:8">
+      <c r="A264" s="6"/>
+      <c r="B264" s="6"/>
+      <c r="C264" s="6"/>
+      <c r="D264" s="7"/>
+      <c r="E264" s="7"/>
+      <c r="F264" s="6"/>
+      <c r="G264" s="6"/>
+      <c r="H264" s="6"/>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="A265" s="6"/>
+      <c r="B265" s="6"/>
+      <c r="C265" s="6"/>
+      <c r="D265" s="7"/>
+      <c r="E265" s="7"/>
+      <c r="F265" s="6"/>
+      <c r="G265" s="6"/>
+      <c r="H265" s="6"/>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="A266" s="6"/>
+      <c r="B266" s="6"/>
+      <c r="C266" s="6"/>
+      <c r="D266" s="7"/>
+      <c r="E266" s="7"/>
+      <c r="F266" s="6"/>
+      <c r="G266" s="6"/>
+      <c r="H266" s="6"/>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="A267" s="6"/>
+      <c r="B267" s="6"/>
+      <c r="C267" s="6"/>
+      <c r="D267" s="7"/>
+      <c r="E267" s="7"/>
+      <c r="F267" s="6"/>
+      <c r="G267" s="6"/>
+      <c r="H267" s="6"/>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="A268" s="6"/>
+      <c r="B268" s="6"/>
+      <c r="C268" s="6"/>
+      <c r="D268" s="7"/>
+      <c r="E268" s="7"/>
+      <c r="F268" s="6"/>
+      <c r="G268" s="6"/>
+      <c r="H268" s="6"/>
+    </row>
+    <row r="269" spans="1:8">
+      <c r="A269" s="6"/>
+      <c r="B269" s="6"/>
+      <c r="C269" s="6"/>
+      <c r="D269" s="7"/>
+      <c r="E269" s="7"/>
+      <c r="F269" s="6"/>
+      <c r="G269" s="6"/>
+      <c r="H269" s="6"/>
+    </row>
+    <row r="270" spans="1:8">
+      <c r="A270" s="6"/>
+      <c r="B270" s="6"/>
+      <c r="C270" s="6"/>
+      <c r="D270" s="7"/>
+      <c r="E270" s="7"/>
+      <c r="F270" s="6"/>
+      <c r="G270" s="6"/>
+      <c r="H270" s="6"/>
+    </row>
+    <row r="271" spans="1:8">
+      <c r="A271" s="6"/>
+      <c r="B271" s="6"/>
+      <c r="C271" s="6"/>
+      <c r="D271" s="7"/>
+      <c r="E271" s="7"/>
+      <c r="F271" s="6"/>
+      <c r="G271" s="6"/>
+      <c r="H271" s="6"/>
+    </row>
+    <row r="272" spans="1:8">
+      <c r="A272" s="6"/>
+      <c r="B272" s="6"/>
+      <c r="C272" s="6"/>
+      <c r="D272" s="7"/>
+      <c r="E272" s="7"/>
+      <c r="F272" s="6"/>
+      <c r="G272" s="6"/>
+      <c r="H272" s="6"/>
+    </row>
+    <row r="273" spans="1:8">
+      <c r="A273" s="6"/>
+      <c r="B273" s="6"/>
+      <c r="C273" s="6"/>
+      <c r="D273" s="7"/>
+      <c r="E273" s="7"/>
+      <c r="F273" s="6"/>
+      <c r="G273" s="6"/>
+      <c r="H273" s="6"/>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="A274" s="6"/>
+      <c r="B274" s="6"/>
+      <c r="C274" s="6"/>
+      <c r="D274" s="7"/>
+      <c r="E274" s="7"/>
+      <c r="F274" s="6"/>
+      <c r="G274" s="6"/>
+      <c r="H274" s="6"/>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="A275" s="6"/>
+      <c r="B275" s="6"/>
+      <c r="C275" s="6"/>
+      <c r="D275" s="7"/>
+      <c r="E275" s="7"/>
+      <c r="F275" s="6"/>
+      <c r="G275" s="6"/>
+      <c r="H275" s="6"/>
+    </row>
+    <row r="276" spans="1:8">
+      <c r="A276" s="6"/>
+      <c r="B276" s="6"/>
+      <c r="C276" s="6"/>
+      <c r="D276" s="7"/>
+      <c r="E276" s="7"/>
+      <c r="F276" s="6"/>
+      <c r="G276" s="6"/>
+      <c r="H276" s="6"/>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="A277" s="6"/>
+      <c r="B277" s="6"/>
+      <c r="C277" s="6"/>
+      <c r="D277" s="7"/>
+      <c r="E277" s="7"/>
+      <c r="F277" s="6"/>
+      <c r="G277" s="6"/>
+      <c r="H277" s="6"/>
+    </row>
+    <row r="278" spans="1:8">
+      <c r="A278" s="6"/>
+      <c r="B278" s="6"/>
+      <c r="C278" s="6"/>
+      <c r="D278" s="7"/>
+      <c r="E278" s="7"/>
+      <c r="F278" s="6"/>
+      <c r="G278" s="6"/>
+      <c r="H278" s="6"/>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="A279" s="6"/>
+      <c r="B279" s="6"/>
+      <c r="C279" s="6"/>
+      <c r="D279" s="7"/>
+      <c r="E279" s="7"/>
+      <c r="F279" s="6"/>
+      <c r="G279" s="6"/>
+      <c r="H279" s="6"/>
+    </row>
+    <row r="280" spans="1:8">
+      <c r="A280" s="6"/>
+      <c r="B280" s="6"/>
+      <c r="C280" s="6"/>
+      <c r="D280" s="7"/>
+      <c r="E280" s="7"/>
+      <c r="F280" s="6"/>
+      <c r="G280" s="6"/>
+      <c r="H280" s="6"/>
+    </row>
+    <row r="281" spans="1:8">
+      <c r="A281" s="6"/>
+      <c r="B281" s="6"/>
+      <c r="C281" s="6"/>
+      <c r="D281" s="7"/>
+      <c r="E281" s="7"/>
+      <c r="F281" s="6"/>
+      <c r="G281" s="6"/>
+      <c r="H281" s="6"/>
+    </row>
+    <row r="282" spans="1:8">
+      <c r="A282" s="6"/>
+      <c r="B282" s="6"/>
+      <c r="C282" s="6"/>
+      <c r="D282" s="7"/>
+      <c r="E282" s="7"/>
+      <c r="F282" s="6"/>
+      <c r="G282" s="6"/>
+      <c r="H282" s="6"/>
+    </row>
+    <row r="283" spans="1:8">
+      <c r="A283" s="6"/>
+      <c r="B283" s="6"/>
+      <c r="C283" s="6"/>
+      <c r="D283" s="7"/>
+      <c r="E283" s="7"/>
+      <c r="F283" s="6"/>
+      <c r="G283" s="6"/>
+      <c r="H283" s="6"/>
+    </row>
+    <row r="284" spans="1:8">
+      <c r="A284" s="6"/>
+      <c r="B284" s="6"/>
+      <c r="C284" s="6"/>
+      <c r="D284" s="7"/>
+      <c r="E284" s="7"/>
+      <c r="F284" s="6"/>
+      <c r="G284" s="6"/>
+      <c r="H284" s="6"/>
+    </row>
+    <row r="285" spans="1:8">
+      <c r="A285" s="6"/>
+      <c r="B285" s="6"/>
+      <c r="C285" s="6"/>
+      <c r="D285" s="7"/>
+      <c r="E285" s="7"/>
+      <c r="F285" s="6"/>
+      <c r="G285" s="6"/>
+      <c r="H285" s="6"/>
+    </row>
+    <row r="286" spans="1:8">
+      <c r="A286" s="6"/>
+      <c r="B286" s="6"/>
+      <c r="C286" s="6"/>
+      <c r="D286" s="7"/>
+      <c r="E286" s="7"/>
+      <c r="F286" s="6"/>
+      <c r="G286" s="6"/>
+      <c r="H286" s="6"/>
+    </row>
+    <row r="287" spans="1:8">
+      <c r="A287" s="6"/>
+      <c r="B287" s="6"/>
+      <c r="C287" s="6"/>
+      <c r="D287" s="7"/>
+      <c r="E287" s="7"/>
+      <c r="F287" s="6"/>
+      <c r="G287" s="6"/>
+      <c r="H287" s="6"/>
+    </row>
+    <row r="288" spans="1:8">
+      <c r="A288" s="6"/>
+      <c r="B288" s="6"/>
+      <c r="C288" s="6"/>
+      <c r="D288" s="7"/>
+      <c r="E288" s="7"/>
+      <c r="F288" s="6"/>
+      <c r="G288" s="6"/>
+      <c r="H288" s="6"/>
+    </row>
+    <row r="289" spans="1:8">
+      <c r="A289" s="6"/>
+      <c r="B289" s="6"/>
+      <c r="C289" s="6"/>
+      <c r="D289" s="7"/>
+      <c r="E289" s="7"/>
+      <c r="F289" s="6"/>
+      <c r="G289" s="6"/>
+      <c r="H289" s="6"/>
+    </row>
+    <row r="290" spans="1:8">
+      <c r="A290" s="6"/>
+      <c r="B290" s="6"/>
+      <c r="C290" s="6"/>
+      <c r="D290" s="7"/>
+      <c r="E290" s="7"/>
+      <c r="F290" s="6"/>
+      <c r="G290" s="6"/>
+      <c r="H290" s="6"/>
+    </row>
+    <row r="291" spans="1:8">
+      <c r="A291" s="6"/>
+      <c r="B291" s="6"/>
+      <c r="C291" s="6"/>
+      <c r="D291" s="7"/>
+      <c r="E291" s="7"/>
+      <c r="F291" s="6"/>
+      <c r="G291" s="6"/>
+      <c r="H291" s="6"/>
+    </row>
+    <row r="292" spans="1:8">
+      <c r="A292" s="6"/>
+      <c r="B292" s="6"/>
+      <c r="C292" s="6"/>
+      <c r="D292" s="7"/>
+      <c r="E292" s="7"/>
+      <c r="F292" s="6"/>
+      <c r="G292" s="6"/>
+      <c r="H292" s="6"/>
+    </row>
+    <row r="293" spans="1:8">
+      <c r="A293" s="6"/>
+      <c r="B293" s="6"/>
+      <c r="C293" s="6"/>
+      <c r="D293" s="7"/>
+      <c r="E293" s="7"/>
+      <c r="F293" s="6"/>
+      <c r="G293" s="6"/>
+      <c r="H293" s="6"/>
+    </row>
+    <row r="294" spans="1:8">
+      <c r="A294" s="6"/>
+      <c r="B294" s="6"/>
+      <c r="C294" s="6"/>
+      <c r="D294" s="7"/>
+      <c r="E294" s="7"/>
+      <c r="F294" s="6"/>
+      <c r="G294" s="6"/>
+      <c r="H294" s="6"/>
+    </row>
+    <row r="295" spans="1:8">
+      <c r="A295" s="6"/>
+      <c r="B295" s="6"/>
+      <c r="C295" s="6"/>
+      <c r="D295" s="7"/>
+      <c r="E295" s="7"/>
+      <c r="F295" s="6"/>
+      <c r="G295" s="6"/>
+      <c r="H295" s="6"/>
+    </row>
+    <row r="296" spans="1:8">
+      <c r="A296" s="6"/>
+      <c r="B296" s="6"/>
+      <c r="C296" s="6"/>
+      <c r="D296" s="7"/>
+      <c r="E296" s="7"/>
+      <c r="F296" s="6"/>
+      <c r="G296" s="6"/>
+      <c r="H296" s="6"/>
+    </row>
+    <row r="297" spans="1:8">
+      <c r="A297" s="6"/>
+      <c r="B297" s="6"/>
+      <c r="C297" s="6"/>
+      <c r="D297" s="7"/>
+      <c r="E297" s="7"/>
+      <c r="F297" s="6"/>
+      <c r="G297" s="6"/>
+      <c r="H297" s="6"/>
+    </row>
+    <row r="298" spans="1:8">
+      <c r="A298" s="6"/>
+      <c r="B298" s="6"/>
+      <c r="C298" s="6"/>
+      <c r="D298" s="7"/>
+      <c r="E298" s="7"/>
+      <c r="F298" s="6"/>
+      <c r="G298" s="6"/>
+      <c r="H298" s="6"/>
+    </row>
+    <row r="299" spans="1:8">
+      <c r="A299" s="6"/>
+      <c r="B299" s="6"/>
+      <c r="C299" s="6"/>
+      <c r="D299" s="7"/>
+      <c r="E299" s="7"/>
+      <c r="F299" s="6"/>
+      <c r="G299" s="6"/>
+      <c r="H299" s="6"/>
+    </row>
+    <row r="300" spans="1:8">
+      <c r="A300" s="6"/>
+      <c r="B300" s="6"/>
+      <c r="C300" s="6"/>
+      <c r="D300" s="7"/>
+      <c r="E300" s="7"/>
+      <c r="F300" s="6"/>
+      <c r="G300" s="6"/>
+      <c r="H300" s="6"/>
+    </row>
+    <row r="301" spans="1:8">
+      <c r="A301" s="6"/>
+      <c r="B301" s="6"/>
+      <c r="C301" s="6"/>
+      <c r="D301" s="7"/>
+      <c r="E301" s="7"/>
+      <c r="F301" s="6"/>
+      <c r="G301" s="6"/>
+      <c r="H301" s="6"/>
+    </row>
+    <row r="302" spans="1:8">
+      <c r="A302" s="6"/>
+      <c r="B302" s="6"/>
+      <c r="C302" s="6"/>
+      <c r="D302" s="7"/>
+      <c r="E302" s="7"/>
+      <c r="F302" s="6"/>
+      <c r="G302" s="6"/>
+      <c r="H302" s="6"/>
+    </row>
+    <row r="303" spans="1:8">
+      <c r="A303" s="6"/>
+      <c r="B303" s="6"/>
+      <c r="C303" s="6"/>
+      <c r="D303" s="7"/>
+      <c r="E303" s="7"/>
+      <c r="F303" s="6"/>
+      <c r="G303" s="6"/>
+      <c r="H303" s="6"/>
+    </row>
+    <row r="304" spans="1:8">
+      <c r="A304" s="6"/>
+      <c r="B304" s="6"/>
+      <c r="C304" s="6"/>
+      <c r="D304" s="7"/>
+      <c r="E304" s="7"/>
+      <c r="F304" s="6"/>
+      <c r="G304" s="6"/>
+      <c r="H304" s="6"/>
+    </row>
+    <row r="305" spans="1:8">
+      <c r="A305" s="6"/>
+      <c r="B305" s="6"/>
+      <c r="C305" s="6"/>
+      <c r="D305" s="7"/>
+      <c r="E305" s="7"/>
+      <c r="F305" s="6"/>
+      <c r="G305" s="6"/>
+      <c r="H305" s="6"/>
+    </row>
+    <row r="306" spans="1:8">
+      <c r="A306" s="6"/>
+      <c r="B306" s="6"/>
+      <c r="C306" s="6"/>
+      <c r="D306" s="7"/>
+      <c r="E306" s="7"/>
+      <c r="F306" s="6"/>
+      <c r="G306" s="6"/>
+      <c r="H306" s="6"/>
+    </row>
+    <row r="307" spans="1:8">
+      <c r="A307" s="6"/>
+      <c r="B307" s="6"/>
+      <c r="C307" s="6"/>
+      <c r="D307" s="7"/>
+      <c r="E307" s="7"/>
+      <c r="F307" s="6"/>
+      <c r="G307" s="6"/>
+      <c r="H307" s="6"/>
+    </row>
+    <row r="308" spans="1:8">
+      <c r="A308" s="6"/>
+      <c r="B308" s="6"/>
+      <c r="C308" s="6"/>
+      <c r="D308" s="7"/>
+      <c r="E308" s="7"/>
+      <c r="F308" s="6"/>
+      <c r="G308" s="6"/>
+      <c r="H308" s="6"/>
+    </row>
+    <row r="309" spans="1:8">
+      <c r="A309" s="6"/>
+      <c r="B309" s="6"/>
+      <c r="C309" s="6"/>
+      <c r="D309" s="7"/>
+      <c r="E309" s="7"/>
+      <c r="F309" s="6"/>
+      <c r="G309" s="6"/>
+      <c r="H309" s="6"/>
+    </row>
+    <row r="310" spans="1:8">
+      <c r="A310" s="6"/>
+      <c r="B310" s="6"/>
+      <c r="C310" s="6"/>
+      <c r="D310" s="7"/>
+      <c r="E310" s="7"/>
+      <c r="F310" s="6"/>
+      <c r="G310" s="6"/>
+      <c r="H310" s="6"/>
+    </row>
+    <row r="311" spans="1:8">
+      <c r="A311" s="6"/>
+      <c r="B311" s="6"/>
+      <c r="C311" s="6"/>
+      <c r="D311" s="7"/>
+      <c r="E311" s="7"/>
+      <c r="F311" s="6"/>
+      <c r="G311" s="6"/>
+      <c r="H311" s="6"/>
+    </row>
+    <row r="312" spans="1:8">
+      <c r="A312" s="6"/>
+      <c r="B312" s="6"/>
+      <c r="C312" s="6"/>
+      <c r="D312" s="7"/>
+      <c r="E312" s="7"/>
+      <c r="F312" s="6"/>
+      <c r="G312" s="6"/>
+      <c r="H312" s="6"/>
+    </row>
+    <row r="313" spans="1:8">
+      <c r="A313" s="6"/>
+      <c r="B313" s="6"/>
+      <c r="C313" s="6"/>
+      <c r="D313" s="7"/>
+      <c r="E313" s="7"/>
+      <c r="F313" s="6"/>
+      <c r="G313" s="6"/>
+      <c r="H313" s="6"/>
+    </row>
+    <row r="314" spans="1:8">
+      <c r="A314" s="6"/>
+      <c r="B314" s="6"/>
+      <c r="C314" s="6"/>
+      <c r="D314" s="7"/>
+      <c r="E314" s="7"/>
+      <c r="F314" s="6"/>
+      <c r="G314" s="6"/>
+      <c r="H314" s="6"/>
+    </row>
+    <row r="315" spans="1:8">
+      <c r="A315" s="6"/>
+      <c r="B315" s="6"/>
+      <c r="C315" s="6"/>
+      <c r="D315" s="7"/>
+      <c r="E315" s="7"/>
+      <c r="F315" s="6"/>
+      <c r="G315" s="6"/>
+      <c r="H315" s="6"/>
+    </row>
+    <row r="316" spans="1:8">
+      <c r="A316" s="6"/>
+      <c r="B316" s="6"/>
+      <c r="C316" s="6"/>
+      <c r="D316" s="7"/>
+      <c r="E316" s="7"/>
+      <c r="F316" s="6"/>
+      <c r="G316" s="6"/>
+      <c r="H316" s="6"/>
+    </row>
+    <row r="317" spans="1:8">
+      <c r="A317" s="6"/>
+      <c r="B317" s="6"/>
+      <c r="C317" s="6"/>
+      <c r="D317" s="7"/>
+      <c r="E317" s="7"/>
+      <c r="F317" s="6"/>
+      <c r="G317" s="6"/>
+      <c r="H317" s="6"/>
+    </row>
+    <row r="318" spans="1:8">
+      <c r="A318" s="6"/>
+      <c r="B318" s="6"/>
+      <c r="C318" s="6"/>
+      <c r="D318" s="7"/>
+      <c r="E318" s="7"/>
+      <c r="F318" s="6"/>
+      <c r="G318" s="6"/>
+      <c r="H318" s="6"/>
+    </row>
+    <row r="319" spans="1:8">
+      <c r="A319" s="6"/>
+      <c r="B319" s="6"/>
+      <c r="C319" s="6"/>
+      <c r="D319" s="7"/>
+      <c r="E319" s="7"/>
+      <c r="F319" s="6"/>
+      <c r="G319" s="6"/>
+      <c r="H319" s="6"/>
+    </row>
+    <row r="320" spans="1:8">
+      <c r="A320" s="6"/>
+      <c r="B320" s="6"/>
+      <c r="C320" s="6"/>
+      <c r="D320" s="7"/>
+      <c r="E320" s="7"/>
+      <c r="F320" s="6"/>
+      <c r="G320" s="6"/>
+      <c r="H320" s="6"/>
+    </row>
+    <row r="321" spans="1:8">
+      <c r="A321" s="6"/>
+      <c r="B321" s="6"/>
+      <c r="C321" s="6"/>
+      <c r="D321" s="7"/>
+      <c r="E321" s="7"/>
+      <c r="F321" s="6"/>
+      <c r="G321" s="6"/>
+      <c r="H321" s="6"/>
+    </row>
+    <row r="322" spans="1:8">
+      <c r="A322" s="6"/>
+      <c r="B322" s="6"/>
+      <c r="C322" s="6"/>
+      <c r="D322" s="7"/>
+      <c r="E322" s="7"/>
+      <c r="F322" s="6"/>
+      <c r="G322" s="6"/>
+      <c r="H322" s="6"/>
+    </row>
+    <row r="323" spans="1:8">
+      <c r="A323" s="6"/>
+      <c r="B323" s="6"/>
+      <c r="C323" s="6"/>
+      <c r="D323" s="7"/>
+      <c r="E323" s="7"/>
+      <c r="F323" s="6"/>
+      <c r="G323" s="6"/>
+      <c r="H323" s="6"/>
+    </row>
+    <row r="324" spans="1:8">
+      <c r="A324" s="6"/>
+      <c r="B324" s="6"/>
+      <c r="C324" s="6"/>
+      <c r="D324" s="7"/>
+      <c r="E324" s="7"/>
+      <c r="F324" s="6"/>
+      <c r="G324" s="6"/>
+      <c r="H324" s="6"/>
+    </row>
+    <row r="325" spans="1:8">
+      <c r="A325" s="6"/>
+      <c r="B325" s="6"/>
+      <c r="C325" s="6"/>
+      <c r="D325" s="7"/>
+      <c r="E325" s="7"/>
+      <c r="F325" s="6"/>
+      <c r="G325" s="6"/>
+      <c r="H325" s="6"/>
+    </row>
+    <row r="326" spans="1:8">
+      <c r="A326" s="6"/>
+      <c r="B326" s="6"/>
+      <c r="C326" s="6"/>
+      <c r="D326" s="7"/>
+      <c r="E326" s="7"/>
+      <c r="F326" s="6"/>
+      <c r="G326" s="6"/>
+      <c r="H326" s="6"/>
+    </row>
+    <row r="327" spans="1:8">
+      <c r="A327" s="6"/>
+      <c r="B327" s="6"/>
+      <c r="C327" s="6"/>
+      <c r="D327" s="7"/>
+      <c r="E327" s="7"/>
+      <c r="F327" s="6"/>
+      <c r="G327" s="6"/>
+      <c r="H327" s="6"/>
+    </row>
+    <row r="328" spans="1:8">
+      <c r="A328" s="6"/>
+      <c r="B328" s="6"/>
+      <c r="C328" s="6"/>
+      <c r="D328" s="7"/>
+      <c r="E328" s="7"/>
+      <c r="F328" s="6"/>
+      <c r="G328" s="6"/>
+      <c r="H328" s="6"/>
+    </row>
+    <row r="329" spans="1:8">
+      <c r="A329" s="6"/>
+      <c r="B329" s="6"/>
+      <c r="C329" s="6"/>
+      <c r="D329" s="7"/>
+      <c r="E329" s="7"/>
+      <c r="F329" s="6"/>
+      <c r="G329" s="6"/>
+      <c r="H329" s="6"/>
+    </row>
+    <row r="330" spans="1:8">
+      <c r="A330" s="6"/>
+      <c r="B330" s="6"/>
+      <c r="C330" s="6"/>
+      <c r="D330" s="7"/>
+      <c r="E330" s="7"/>
+      <c r="F330" s="6"/>
+      <c r="G330" s="6"/>
+      <c r="H330" s="6"/>
+    </row>
+    <row r="331" spans="1:8">
+      <c r="A331" s="6"/>
+      <c r="B331" s="6"/>
+      <c r="C331" s="6"/>
+      <c r="D331" s="7"/>
+      <c r="E331" s="7"/>
+      <c r="F331" s="6"/>
+      <c r="G331" s="6"/>
+      <c r="H331" s="6"/>
+    </row>
+    <row r="332" spans="1:8">
+      <c r="A332" s="6"/>
+      <c r="B332" s="6"/>
+      <c r="C332" s="6"/>
+      <c r="D332" s="7"/>
+      <c r="E332" s="7"/>
+      <c r="F332" s="6"/>
+      <c r="G332" s="6"/>
+      <c r="H332" s="6"/>
+    </row>
+    <row r="333" spans="1:8">
+      <c r="A333" s="6"/>
+      <c r="B333" s="6"/>
+      <c r="C333" s="6"/>
+      <c r="D333" s="7"/>
+      <c r="E333" s="7"/>
+      <c r="F333" s="6"/>
+      <c r="G333" s="6"/>
+      <c r="H333" s="6"/>
+    </row>
+    <row r="334" spans="1:8">
+      <c r="A334" s="6"/>
+      <c r="B334" s="6"/>
+      <c r="C334" s="6"/>
+      <c r="D334" s="7"/>
+      <c r="E334" s="7"/>
+      <c r="F334" s="6"/>
+      <c r="G334" s="6"/>
+      <c r="H334" s="6"/>
+    </row>
+    <row r="335" spans="1:8">
+      <c r="A335" s="6"/>
+      <c r="B335" s="6"/>
+      <c r="C335" s="6"/>
+      <c r="D335" s="7"/>
+      <c r="E335" s="7"/>
+      <c r="F335" s="6"/>
+      <c r="G335" s="6"/>
+      <c r="H335" s="6"/>
+    </row>
+    <row r="336" spans="1:8">
+      <c r="A336" s="6"/>
+      <c r="B336" s="6"/>
+      <c r="C336" s="6"/>
+      <c r="D336" s="7"/>
+      <c r="E336" s="7"/>
+      <c r="F336" s="6"/>
+      <c r="G336" s="6"/>
+      <c r="H336" s="6"/>
+    </row>
+    <row r="337" spans="1:8">
+      <c r="A337" s="6"/>
+      <c r="B337" s="6"/>
+      <c r="C337" s="6"/>
+      <c r="D337" s="7"/>
+      <c r="E337" s="7"/>
+      <c r="F337" s="6"/>
+      <c r="G337" s="6"/>
+      <c r="H337" s="6"/>
+    </row>
+    <row r="338" spans="1:8">
+      <c r="A338" s="6"/>
+      <c r="B338" s="6"/>
+      <c r="C338" s="6"/>
+      <c r="D338" s="7"/>
+      <c r="E338" s="7"/>
+      <c r="F338" s="6"/>
+      <c r="G338" s="6"/>
+      <c r="H338" s="6"/>
+    </row>
+    <row r="339" spans="1:8">
+      <c r="A339" s="6"/>
+      <c r="B339" s="6"/>
+      <c r="C339" s="6"/>
+      <c r="D339" s="7"/>
+      <c r="E339" s="7"/>
+      <c r="F339" s="6"/>
+      <c r="G339" s="6"/>
+      <c r="H339" s="6"/>
+    </row>
+    <row r="340" spans="1:8">
+      <c r="A340" s="6"/>
+      <c r="B340" s="6"/>
+      <c r="C340" s="6"/>
+      <c r="D340" s="7"/>
+      <c r="E340" s="7"/>
+      <c r="F340" s="6"/>
+      <c r="G340" s="6"/>
+      <c r="H340" s="6"/>
+    </row>
+    <row r="341" spans="1:8">
+      <c r="A341" s="6"/>
+      <c r="B341" s="6"/>
+      <c r="C341" s="6"/>
+      <c r="D341" s="7"/>
+      <c r="E341" s="7"/>
+      <c r="F341" s="6"/>
+      <c r="G341" s="6"/>
+      <c r="H341" s="6"/>
+    </row>
+    <row r="342" spans="1:8">
+      <c r="A342" s="6"/>
+      <c r="B342" s="6"/>
+      <c r="C342" s="6"/>
+      <c r="D342" s="7"/>
+      <c r="E342" s="7"/>
+      <c r="F342" s="6"/>
+      <c r="G342" s="6"/>
+      <c r="H342" s="6"/>
+    </row>
+    <row r="343" spans="1:8">
+      <c r="A343" s="6"/>
+      <c r="B343" s="6"/>
+      <c r="C343" s="6"/>
+      <c r="D343" s="7"/>
+      <c r="E343" s="7"/>
+      <c r="F343" s="6"/>
+      <c r="G343" s="6"/>
+      <c r="H343" s="6"/>
+    </row>
+    <row r="344" spans="1:8">
+      <c r="A344" s="6"/>
+      <c r="B344" s="6"/>
+      <c r="C344" s="6"/>
+      <c r="D344" s="7"/>
+      <c r="E344" s="7"/>
+      <c r="F344" s="6"/>
+      <c r="G344" s="6"/>
+      <c r="H344" s="6"/>
+    </row>
+    <row r="345" spans="1:8">
+      <c r="A345" s="6"/>
+      <c r="B345" s="6"/>
+      <c r="C345" s="6"/>
+      <c r="D345" s="7"/>
+      <c r="E345" s="7"/>
+      <c r="F345" s="6"/>
+      <c r="G345" s="6"/>
+      <c r="H345" s="6"/>
+    </row>
+    <row r="346" spans="1:8">
+      <c r="A346" s="6"/>
+      <c r="B346" s="6"/>
+      <c r="C346" s="6"/>
+      <c r="D346" s="7"/>
+      <c r="E346" s="7"/>
+      <c r="F346" s="6"/>
+      <c r="G346" s="6"/>
+      <c r="H346" s="6"/>
+    </row>
+    <row r="347" spans="1:8">
+      <c r="A347" s="6"/>
+      <c r="B347" s="6"/>
+      <c r="C347" s="6"/>
+      <c r="D347" s="7"/>
+      <c r="E347" s="7"/>
+      <c r="F347" s="6"/>
+      <c r="G347" s="6"/>
+      <c r="H347" s="6"/>
+    </row>
+    <row r="348" spans="1:8">
+      <c r="A348" s="6"/>
+      <c r="B348" s="6"/>
+      <c r="C348" s="6"/>
+      <c r="D348" s="7"/>
+      <c r="E348" s="7"/>
+      <c r="F348" s="6"/>
+      <c r="G348" s="6"/>
+      <c r="H348" s="6"/>
+    </row>
+    <row r="349" spans="1:8">
+      <c r="A349" s="6"/>
+      <c r="B349" s="6"/>
+      <c r="C349" s="6"/>
+      <c r="D349" s="7"/>
+      <c r="E349" s="7"/>
+      <c r="F349" s="6"/>
+      <c r="G349" s="6"/>
+      <c r="H349" s="6"/>
+    </row>
+    <row r="350" spans="1:8">
+      <c r="A350" s="6"/>
+      <c r="B350" s="6"/>
+      <c r="C350" s="6"/>
+      <c r="D350" s="7"/>
+      <c r="E350" s="7"/>
+      <c r="F350" s="6"/>
+      <c r="G350" s="6"/>
+      <c r="H350" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/mgmt/Openconfig-system_SONiC_mapping.xlsx
+++ b/doc/mgmt/Openconfig-system_SONiC_mapping.xlsx
@@ -1,42 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anukul/Desktop/Cisco/oc-system-gnmi/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49020C99-D5C3-2340-97D1-D955BF4DED36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="4340" yWindow="2660" windowWidth="27640" windowHeight="16940" xr2:uid="{A0F1A60B-4019-9A40-BFF7-1981A7824EDF}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="252">
   <si>
     <t>Openconfig Yang</t>
   </si>
@@ -107,6 +82,51 @@
     <t>VERSION|SOFTWARE</t>
   </si>
   <si>
+    <t xml:space="preserve">  last-configuration-timestamp</t>
+  </si>
+  <si>
+    <t>STATE_DB</t>
+  </si>
+  <si>
+    <t>HOST_STATS|CONFIG:last-configuration-timestamp</t>
+  </si>
+  <si>
+    <t>mount-points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mount-point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    state</t>
+  </si>
+  <si>
+    <t>MOUNT_POINTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       &lt;table-key&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       filesystem-type</t>
+  </si>
+  <si>
     <t>clock</t>
   </si>
   <si>
@@ -119,6 +139,27 @@
     <t>DEVICE_METADATA:timezone</t>
   </si>
   <si>
+    <t>cpus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cpu</t>
+  </si>
+  <si>
+    <t>CPU_STATS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;table-key&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  total_interval</t>
+  </si>
+  <si>
     <t>dns</t>
   </si>
   <si>
@@ -131,6 +172,48 @@
     <t>DNS_NAMESERVER:ip</t>
   </si>
   <si>
+    <t>memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  state</t>
+  </si>
+  <si>
+    <t>MEMORY_STATS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    physical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    counters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      correctable-ecc-errors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  correctable-ecc-errors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      uncorrectable-ecc-errors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  uncorrectable-ecc-errors</t>
+  </si>
+  <si>
     <t>ntp</t>
   </si>
   <si>
@@ -254,6 +337,60 @@
     <t>SSH_SERVER:login_timeout</t>
   </si>
   <si>
+    <t>alarms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  alarm</t>
+  </si>
+  <si>
+    <t>COMPONENT_STATE_TABLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      id</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>&lt;table-key&gt; + timestamp-seconds + timestamp-nanoseconds</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">      resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  state + reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      time-created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  timestamp-seconds + timestamp-nanoseconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      severity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      type-id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  hwErr</t>
+  </si>
+  <si>
     <t>logging</t>
   </si>
   <si>
@@ -449,9 +586,6 @@
     <t xml:space="preserve">  process</t>
   </si>
   <si>
-    <t>STATE_DB</t>
-  </si>
-  <si>
     <t>PROCESS_STATS</t>
   </si>
   <si>
@@ -495,34 +629,191 @@
   </si>
   <si>
     <t>SYSLOG_CONFIG:severity</t>
+  </si>
+  <si>
+    <t>grpc-servers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  grpc-server</t>
+  </si>
+  <si>
+    <t>CREDENTIALS|CERT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      certificate-version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  certificate_version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      certificate-created-on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  certificate_created_on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ca-trust-bundle-version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ca_trust_bundle_version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ca-trust-bundle-created-on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ca_trust_bundle_created_on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      certificate-revocation-list-bundle-version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  certificate_revocation_list_bundle_version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      certificate-revocation-list-bundle-created-on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  certificate_revocation_list_bundle_created_on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    connections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      connection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        state</t>
+  </si>
+  <si>
+    <t>COUNTERS_DB</t>
+  </si>
+  <si>
+    <t>COUNTERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          port</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          counters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            bytes-sent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  bytes_sent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            packets-sent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  packets_sent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            data-send-error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  packets_error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    gnmi-pathz-policy-counters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      paths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          state</t>
+  </si>
+  <si>
+    <t>PATHZ_TABLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            reads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              access-rejects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              last-access-reject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  timestamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              access-accepts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              last-access-accept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            writes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    authz-policy-counters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      rpcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        rpc</t>
+  </si>
+  <si>
+    <t>AUTHZ_TABLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            access-rejects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            last-access-reject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            access-accepts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            last-access-accept</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="6">
     <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color theme="1"/>
-      <name val="Times New Roman Bold"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color rgb="FF3B3B3B"/>
-      <name val="Times New Roman Bold"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font/>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman Bold"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -530,255 +821,295 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
+    <border/>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="33">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="156082"/>
@@ -802,113 +1133,19 @@
         <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="467886"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Aptos Narrow"/>
+        <a:ea typeface="Aptos Narrow"/>
+        <a:cs typeface="Aptos Narrow"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Aptos Narrow"/>
+        <a:ea typeface="Aptos Narrow"/>
+        <a:cs typeface="Aptos Narrow"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -970,6 +1207,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -978,13 +1222,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1049,55 +1286,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E07FE6-F6F3-E342-890F-CDE99F335650}">
-  <dimension ref="A1:F111"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" customWidth="1"/>
-    <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="43.1640625" customWidth="1"/>
-    <col min="6" max="6" width="2.83203125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="2.33"/>
+    <col customWidth="1" min="2" max="2" width="28.0"/>
+    <col customWidth="1" min="3" max="3" width="25.0"/>
+    <col customWidth="1" min="4" max="4" width="14.11"/>
+    <col customWidth="1" min="5" max="5" width="43.11"/>
+    <col customWidth="1" min="6" max="6" width="2.78"/>
+    <col customWidth="1" min="7" max="26" width="10.56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" thickBot="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -1105,7 +1316,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -1117,7 +1328,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>2</v>
@@ -1133,7 +1344,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="10" t="s">
         <v>6</v>
@@ -1143,7 +1354,7 @@
       <c r="E4" s="12"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="10" t="s">
         <v>7</v>
@@ -1159,7 +1370,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
@@ -1175,7 +1386,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
         <v>14</v>
@@ -1191,7 +1402,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
@@ -1199,7 +1410,7 @@
       <c r="E8" s="12"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="10" t="s">
         <v>16</v>
@@ -1209,7 +1420,7 @@
       <c r="E9" s="12"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="10" t="s">
         <v>17</v>
@@ -1219,7 +1430,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="10" t="s">
         <v>18</v>
@@ -1229,7 +1440,7 @@
       <c r="E11" s="13"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="10" t="s">
         <v>19</v>
@@ -1239,7 +1450,7 @@
       <c r="E12" s="13"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="10" t="s">
         <v>20</v>
@@ -1255,1273 +1466,3172 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="10"/>
+      <c r="B14" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
+      <c r="D14" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>25</v>
+      </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="10" t="s">
-        <v>23</v>
-      </c>
+      <c r="B15" s="10"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="12"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="10" t="s">
-        <v>24</v>
+      <c r="B16" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="12"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>26</v>
-      </c>
+      <c r="B17" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="10"/>
+      <c r="B18" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
+      <c r="D18" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="10" t="s">
-        <v>27</v>
+      <c r="B19" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
+      <c r="E19" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="10" t="s">
-        <v>24</v>
+      <c r="B20" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
+      <c r="E20" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>30</v>
+      <c r="B21" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="10"/>
+      <c r="B22" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
+      <c r="E22" s="16" t="s">
+        <v>37</v>
+      </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="B23" s="10"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="14"/>
+      <c r="E23" s="12"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="17">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>33</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="12"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" ht="19" customHeight="1">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>35</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" ht="19" customHeight="1">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="14" t="s">
-        <v>37</v>
+      <c r="E26" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="B27" s="10"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
-      <c r="E27" s="14"/>
+      <c r="E27" s="12"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" ht="17" customHeight="1">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>40</v>
-      </c>
+      <c r="B28" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="12"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" ht="17">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>42</v>
-      </c>
+      <c r="B29" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="12"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="10" t="s">
-        <v>43</v>
+      <c r="B30" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
+      <c r="D30" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" ht="17">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>42</v>
+      <c r="B31" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" ht="17">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>46</v>
+      <c r="B32" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" ht="17" customHeight="1">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>48</v>
-      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="12"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
-      <c r="E34" s="14"/>
+      <c r="E34" s="12"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" ht="22" customHeight="1">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>51</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="12"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" ht="19" customHeight="1">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>53</v>
-      </c>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="B37" s="10"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
-      <c r="E37" s="14"/>
+      <c r="E37" s="12"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" ht="16" customHeight="1">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="1"/>
+      <c r="B39" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" ht="18" customHeight="1">
-      <c r="A39" s="1"/>
-      <c r="B39" s="10" t="s">
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="1"/>
+      <c r="B40" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="14" t="s">
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" ht="18" customHeight="1">
-      <c r="A40" s="1"/>
-      <c r="B40" s="10" t="s">
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="1"/>
+      <c r="B41" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="14" t="s">
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" ht="17" customHeight="1">
-      <c r="A41" s="1"/>
-      <c r="B41" s="10" t="s">
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="1"/>
+      <c r="B42" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="14" t="s">
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" ht="17">
-      <c r="A42" s="1"/>
-      <c r="B42" s="10" t="s">
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="1"/>
+      <c r="B43" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="14" t="s">
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="1"/>
+      <c r="B44" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" ht="16" customHeight="1">
-      <c r="A43" s="1"/>
-      <c r="B43" s="10" t="s">
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="14" t="s">
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="1"/>
+      <c r="B45" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" ht="19" customHeight="1">
-      <c r="A44" s="1"/>
-      <c r="B44" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="1"/>
-      <c r="B45" s="10"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
-      <c r="E45" s="12"/>
+      <c r="E45" s="16" t="s">
+        <v>66</v>
+      </c>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1"/>
-      <c r="B46" s="10" t="s">
-        <v>68</v>
-      </c>
+      <c r="B46" s="10"/>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
       <c r="E46" s="12"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="10" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
-      <c r="E47" s="12"/>
+      <c r="E47" s="17"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" ht="18.75" customHeight="1">
+      <c r="A49" s="1"/>
+      <c r="B49" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D48" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="12" t="s">
+      <c r="C49" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="1"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="12"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" ht="18.75" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="12"/>
+      <c r="C50" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>73</v>
+      </c>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
-      <c r="E51" s="12"/>
+      <c r="E51" s="17"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="12" t="s">
+      <c r="E52" s="17" t="s">
         <v>76</v>
       </c>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="10" t="s">
         <v>77</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="12" t="s">
+      <c r="E53" s="17" t="s">
         <v>78</v>
       </c>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="10" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
       <c r="E54" s="12"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E55" s="12" t="s">
-        <v>80</v>
+      <c r="E55" s="17" t="s">
+        <v>78</v>
       </c>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="10" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E56" s="12" t="s">
-        <v>81</v>
+      <c r="E56" s="17" t="s">
+        <v>82</v>
       </c>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="10" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E57" s="12" t="s">
-        <v>82</v>
+      <c r="E57" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>84</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="17"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" ht="21.75" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="12"/>
+        <v>86</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>87</v>
+      </c>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" ht="18.75" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="12"/>
+        <v>88</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>89</v>
+      </c>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="10" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
-      <c r="E61" s="12"/>
+      <c r="E61" s="17"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D62" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E62" s="12" t="s">
+      <c r="E62" s="17" t="s">
         <v>89</v>
       </c>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" ht="18.0" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="12"/>
+        <v>92</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>93</v>
+      </c>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" ht="18.0" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="12"/>
+        <v>94</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" ht="16.5" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="10" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D65" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E65" s="12" t="s">
-        <v>89</v>
+      <c r="E65" s="17" t="s">
+        <v>97</v>
       </c>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="12"/>
+      <c r="B66" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>99</v>
+      </c>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
-      <c r="B67" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="12"/>
+      <c r="B67" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>101</v>
+      </c>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" ht="18.75" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>95</v>
+      <c r="B68" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E68" s="12" t="s">
-        <v>96</v>
+      <c r="E68" s="17" t="s">
+        <v>103</v>
       </c>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
-      <c r="B69" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
       <c r="E69" s="12"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="1"/>
-      <c r="B70" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C70" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" s="12" t="s">
-        <v>99</v>
-      </c>
+      <c r="B70" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="12"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="1"/>
-      <c r="B71" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71" s="12" t="s">
-        <v>96</v>
-      </c>
+      <c r="B71" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="12"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="1"/>
-      <c r="B72" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="12"/>
+      <c r="B72" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>107</v>
+      </c>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="1"/>
-      <c r="B73" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E73" s="12" t="s">
-        <v>99</v>
-      </c>
+      <c r="B73" s="10"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="12"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="1"/>
-      <c r="B74" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E74" s="12" t="s">
-        <v>96</v>
-      </c>
+      <c r="B74" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="12"/>
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="1"/>
-      <c r="B75" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C75" s="16"/>
-      <c r="D75" s="16"/>
+      <c r="B75" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
       <c r="E75" s="12"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="1"/>
-      <c r="B76" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E76" s="12" t="s">
-        <v>99</v>
+      <c r="B76" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C76" s="11"/>
+      <c r="D76" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="1"/>
-      <c r="B77" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C77" s="16"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="12"/>
+      <c r="B77" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="16" t="s">
+        <v>112</v>
+      </c>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="1"/>
-      <c r="B78" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="12"/>
+      <c r="B78" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="1"/>
-      <c r="B79" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="12"/>
+      <c r="B79" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="16" t="s">
+        <v>115</v>
+      </c>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="1"/>
-      <c r="B80" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="12"/>
+      <c r="B80" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="16" t="s">
+        <v>117</v>
+      </c>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="1"/>
-      <c r="B81" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="12"/>
+      <c r="B81" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="16" t="s">
+        <v>54</v>
+      </c>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="1"/>
-      <c r="B82" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C82" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D82" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E82" s="12" t="s">
-        <v>111</v>
+      <c r="B82" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="16" t="s">
+        <v>120</v>
       </c>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="1"/>
-      <c r="B83" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
       <c r="E83" s="12"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="1"/>
-      <c r="B84" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E84" s="12" t="s">
-        <v>111</v>
-      </c>
+      <c r="B84" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="12"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="1"/>
-      <c r="B85" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D85" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E85" s="12" t="s">
-        <v>115</v>
-      </c>
+      <c r="B85" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="12"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="1"/>
-      <c r="B86" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="C86" s="16"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="12"/>
+      <c r="B86" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>125</v>
+      </c>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="1"/>
-      <c r="B87" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C87" s="16"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="12"/>
+      <c r="B87" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>127</v>
+      </c>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="1"/>
-      <c r="B88" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="C88" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D88" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E88" s="12" t="s">
-        <v>119</v>
-      </c>
+      <c r="B88" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="12"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="1"/>
-      <c r="B89" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C89" s="16" t="s">
-        <v>110</v>
+      <c r="B89" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>124</v>
       </c>
       <c r="D89" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="1"/>
-      <c r="B90" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C90" s="16" t="s">
-        <v>110</v>
+      <c r="B90" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>124</v>
       </c>
       <c r="D90" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="1"/>
-      <c r="B91" s="15" t="s">
+      <c r="B91" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C91" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C91" s="16"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="12"/>
+      <c r="D91" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="1"/>
-      <c r="B92" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="12"/>
+      <c r="B92" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>133</v>
+      </c>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="1"/>
-      <c r="B93" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C93" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D93" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E93" s="12" t="s">
-        <v>128</v>
-      </c>
+      <c r="B93" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="12"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="1"/>
-      <c r="B94" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C94" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D94" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E94" s="12" t="s">
-        <v>130</v>
-      </c>
+      <c r="B94" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="12"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="1"/>
-      <c r="B95" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C95" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D95" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E95" s="12" t="s">
-        <v>132</v>
-      </c>
+      <c r="B95" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="12"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="1"/>
-      <c r="B96" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C96" s="16" t="s">
-        <v>127</v>
+      <c r="B96" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>124</v>
       </c>
       <c r="D96" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="1"/>
-      <c r="B97" s="15"/>
-      <c r="C97" s="16"/>
-      <c r="D97" s="16"/>
+      <c r="B97" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
       <c r="E97" s="12"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="1"/>
-      <c r="B98" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C98" s="16"/>
-      <c r="D98" s="16"/>
+      <c r="B98" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
       <c r="E98" s="12"/>
       <c r="F98" s="1"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="1"/>
-      <c r="B99" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C99" s="16"/>
-      <c r="D99" s="16" t="s">
-        <v>137</v>
+      <c r="B99" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="E99" s="12" t="s">
         <v>138</v>
       </c>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="1"/>
-      <c r="B100" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="C100" s="16"/>
-      <c r="D100" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E100" s="12" t="s">
-        <v>140</v>
-      </c>
+      <c r="B100" s="10"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="12"/>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="1"/>
-      <c r="B101" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="C101" s="16"/>
-      <c r="D101" s="16"/>
+      <c r="B101" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C101" s="19"/>
+      <c r="D101" s="19"/>
       <c r="E101" s="12"/>
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="1"/>
-      <c r="B102" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="C102" s="16"/>
-      <c r="D102" s="16" t="s">
-        <v>137</v>
+      <c r="B102" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C102" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="1"/>
-      <c r="B103" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C103" s="16"/>
-      <c r="D103" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E103" s="12" t="s">
-        <v>143</v>
-      </c>
+      <c r="B103" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="12"/>
       <c r="F103" s="1"/>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="1"/>
-      <c r="B104" s="15" t="s">
+      <c r="B104" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C104" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="C104" s="16"/>
-      <c r="D104" s="16" t="s">
-        <v>137</v>
+      <c r="D104" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F104" s="1"/>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="1"/>
-      <c r="B105" s="15" t="s">
+      <c r="B105" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C105" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C105" s="16"/>
-      <c r="D105" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E105" s="12" t="s">
+      <c r="F105" s="1"/>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="A106" s="1"/>
+      <c r="B106" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="F105" s="1"/>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="1"/>
-      <c r="B106" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="C106" s="16"/>
-      <c r="D106" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E106" s="12" t="s">
+      <c r="C106" s="19"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="1"/>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="A107" s="1"/>
+      <c r="B107" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C107" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="F106" s="1"/>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="1"/>
-      <c r="B107" s="15"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="12"/>
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="1"/>
-      <c r="B108" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="C108" s="16"/>
-      <c r="D108" s="16"/>
-      <c r="E108" s="12"/>
+      <c r="B108" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C108" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>145</v>
+      </c>
       <c r="F108" s="1"/>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="1"/>
-      <c r="B109" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="C109" s="16"/>
-      <c r="D109" s="16"/>
+      <c r="B109" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C109" s="19"/>
+      <c r="D109" s="19"/>
       <c r="E109" s="12"/>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="1:6" ht="17" thickBot="1">
+    <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="1"/>
-      <c r="B110" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="C110" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D110" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E110" s="20" t="s">
+      <c r="B110" s="18" t="s">
         <v>152</v>
       </c>
+      <c r="C110" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>148</v>
+      </c>
       <c r="F110" s="1"/>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="1"/>
+      <c r="B111" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C111" s="19"/>
+      <c r="D111" s="19"/>
+      <c r="E111" s="12"/>
       <c r="F111" s="1"/>
     </row>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="A112" s="1"/>
+      <c r="B112" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C112" s="19"/>
+      <c r="D112" s="19"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="1"/>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="A113" s="1"/>
+      <c r="B113" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C113" s="19"/>
+      <c r="D113" s="19"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="1"/>
+    </row>
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="A114" s="1"/>
+      <c r="B114" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C114" s="19"/>
+      <c r="D114" s="19"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="1"/>
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="A115" s="1"/>
+      <c r="B115" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C115" s="19"/>
+      <c r="D115" s="19"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="1"/>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="A116" s="1"/>
+      <c r="B116" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C116" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="F116" s="1"/>
+    </row>
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="A117" s="1"/>
+      <c r="B117" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C117" s="19"/>
+      <c r="D117" s="19"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="1"/>
+    </row>
+    <row r="118" ht="15.75" customHeight="1">
+      <c r="A118" s="1"/>
+      <c r="B118" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C118" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="F118" s="1"/>
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="A119" s="1"/>
+      <c r="B119" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C119" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="F119" s="1"/>
+    </row>
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="A120" s="1"/>
+      <c r="B120" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C120" s="19"/>
+      <c r="D120" s="19"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="1"/>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="A121" s="1"/>
+      <c r="B121" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="C121" s="19"/>
+      <c r="D121" s="19"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="1"/>
+    </row>
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="A122" s="1"/>
+      <c r="B122" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C122" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E122" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="F122" s="1"/>
+    </row>
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="A123" s="1"/>
+      <c r="B123" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C123" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E123" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="F123" s="1"/>
+    </row>
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="A124" s="1"/>
+      <c r="B124" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C124" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="F124" s="1"/>
+    </row>
+    <row r="125" ht="15.75" customHeight="1">
+      <c r="A125" s="1"/>
+      <c r="B125" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C125" s="19"/>
+      <c r="D125" s="19"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="1"/>
+    </row>
+    <row r="126" ht="15.75" customHeight="1">
+      <c r="A126" s="1"/>
+      <c r="B126" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="C126" s="19"/>
+      <c r="D126" s="19"/>
+      <c r="E126" s="12"/>
+      <c r="F126" s="1"/>
+    </row>
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="A127" s="1"/>
+      <c r="B127" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C127" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E127" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F127" s="1"/>
+    </row>
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="A128" s="1"/>
+      <c r="B128" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C128" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E128" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="F128" s="1"/>
+    </row>
+    <row r="129" ht="15.75" customHeight="1">
+      <c r="A129" s="1"/>
+      <c r="B129" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C129" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E129" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F129" s="1"/>
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="A130" s="1"/>
+      <c r="B130" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C130" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="D130" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E130" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="F130" s="1"/>
+    </row>
+    <row r="131" ht="15.75" customHeight="1">
+      <c r="A131" s="1"/>
+      <c r="B131" s="18"/>
+      <c r="C131" s="19"/>
+      <c r="D131" s="19"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="1"/>
+    </row>
+    <row r="132" ht="15.75" customHeight="1">
+      <c r="A132" s="1"/>
+      <c r="B132" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="C132" s="19"/>
+      <c r="D132" s="19"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="1"/>
+    </row>
+    <row r="133" ht="15.75" customHeight="1">
+      <c r="A133" s="1"/>
+      <c r="B133" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C133" s="19"/>
+      <c r="D133" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E133" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="F133" s="1"/>
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="A134" s="1"/>
+      <c r="B134" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C134" s="19"/>
+      <c r="D134" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E134" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="F134" s="1"/>
+    </row>
+    <row r="135" ht="15.75" customHeight="1">
+      <c r="A135" s="1"/>
+      <c r="B135" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C135" s="19"/>
+      <c r="D135" s="19"/>
+      <c r="E135" s="12"/>
+      <c r="F135" s="1"/>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="A136" s="1"/>
+      <c r="B136" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="C136" s="19"/>
+      <c r="D136" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E136" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="F136" s="1"/>
+    </row>
+    <row r="137" ht="15.75" customHeight="1">
+      <c r="A137" s="1"/>
+      <c r="B137" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C137" s="19"/>
+      <c r="D137" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E137" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="F137" s="1"/>
+    </row>
+    <row r="138" ht="15.75" customHeight="1">
+      <c r="A138" s="1"/>
+      <c r="B138" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="C138" s="19"/>
+      <c r="D138" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E138" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="F138" s="1"/>
+    </row>
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="A139" s="1"/>
+      <c r="B139" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="C139" s="19"/>
+      <c r="D139" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E139" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="F139" s="1"/>
+    </row>
+    <row r="140" ht="15.75" customHeight="1">
+      <c r="A140" s="1"/>
+      <c r="B140" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="C140" s="19"/>
+      <c r="D140" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E140" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F140" s="1"/>
+    </row>
+    <row r="141" ht="15.75" customHeight="1">
+      <c r="A141" s="1"/>
+      <c r="B141" s="18"/>
+      <c r="C141" s="19"/>
+      <c r="D141" s="19"/>
+      <c r="E141" s="12"/>
+      <c r="F141" s="1"/>
+    </row>
+    <row r="142" ht="15.75" customHeight="1">
+      <c r="A142" s="1"/>
+      <c r="B142" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="C142" s="19"/>
+      <c r="D142" s="19"/>
+      <c r="E142" s="12"/>
+      <c r="F142" s="1"/>
+    </row>
+    <row r="143" ht="15.75" customHeight="1">
+      <c r="A143" s="1"/>
+      <c r="B143" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C143" s="19"/>
+      <c r="D143" s="19"/>
+      <c r="E143" s="12"/>
+      <c r="F143" s="1"/>
+    </row>
+    <row r="144" ht="15.75" customHeight="1">
+      <c r="A144" s="1"/>
+      <c r="B144" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="C144" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D144" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E144" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F144" s="1"/>
+    </row>
+    <row r="145" ht="15.75" customHeight="1">
+      <c r="A145" s="1"/>
+      <c r="B145" s="18"/>
+      <c r="C145" s="19"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="12"/>
+      <c r="F145" s="1"/>
+    </row>
+    <row r="146" ht="15.75" customHeight="1">
+      <c r="A146" s="1"/>
+      <c r="B146" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C146" s="19"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="12"/>
+      <c r="F146" s="1"/>
+    </row>
+    <row r="147" ht="15.75" customHeight="1">
+      <c r="A147" s="1"/>
+      <c r="B147" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="C147" s="19"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="12"/>
+      <c r="F147" s="1"/>
+    </row>
+    <row r="148" ht="15.75" customHeight="1">
+      <c r="A148" s="1"/>
+      <c r="B148" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C148" s="19"/>
+      <c r="D148" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E148" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="F148" s="1"/>
+    </row>
+    <row r="149" ht="15.75" customHeight="1">
+      <c r="A149" s="1"/>
+      <c r="B149" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C149" s="19"/>
+      <c r="D149" s="19"/>
+      <c r="E149" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F149" s="1"/>
+    </row>
+    <row r="150" ht="15.75" customHeight="1">
+      <c r="A150" s="1"/>
+      <c r="B150" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="C150" s="19"/>
+      <c r="D150" s="19"/>
+      <c r="E150" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="F150" s="1"/>
+    </row>
+    <row r="151" ht="15.75" customHeight="1">
+      <c r="A151" s="1"/>
+      <c r="B151" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="C151" s="19"/>
+      <c r="D151" s="19"/>
+      <c r="E151" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="F151" s="1"/>
+    </row>
+    <row r="152" ht="15.75" customHeight="1">
+      <c r="A152" s="1"/>
+      <c r="B152" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="C152" s="19"/>
+      <c r="D152" s="19"/>
+      <c r="E152" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="F152" s="1"/>
+    </row>
+    <row r="153" ht="15.75" customHeight="1">
+      <c r="A153" s="1"/>
+      <c r="B153" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="C153" s="19"/>
+      <c r="D153" s="19"/>
+      <c r="E153" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="F153" s="1"/>
+    </row>
+    <row r="154" ht="15.75" customHeight="1">
+      <c r="A154" s="1"/>
+      <c r="B154" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="C154" s="19"/>
+      <c r="D154" s="19"/>
+      <c r="E154" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="F154" s="1"/>
+    </row>
+    <row r="155" ht="15.75" customHeight="1">
+      <c r="A155" s="1"/>
+      <c r="B155" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="C155" s="19"/>
+      <c r="D155" s="19"/>
+      <c r="E155" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="F155" s="1"/>
+    </row>
+    <row r="156" ht="15.75" customHeight="1">
+      <c r="A156" s="1"/>
+      <c r="B156" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="C156" s="19"/>
+      <c r="D156" s="19"/>
+      <c r="E156" s="26"/>
+      <c r="F156" s="1"/>
+    </row>
+    <row r="157" ht="15.75" customHeight="1">
+      <c r="A157" s="1"/>
+      <c r="B157" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C157" s="19"/>
+      <c r="D157" s="19"/>
+      <c r="E157" s="26"/>
+      <c r="F157" s="1"/>
+    </row>
+    <row r="158" ht="15.75" customHeight="1">
+      <c r="A158" s="1"/>
+      <c r="B158" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="C158" s="19"/>
+      <c r="D158" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="E158" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="F158" s="1"/>
+    </row>
+    <row r="159" ht="15.75" customHeight="1">
+      <c r="A159" s="1"/>
+      <c r="B159" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C159" s="19"/>
+      <c r="D159" s="19"/>
+      <c r="E159" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F159" s="1"/>
+    </row>
+    <row r="160" ht="15.75" customHeight="1">
+      <c r="A160" s="1"/>
+      <c r="B160" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="C160" s="19"/>
+      <c r="D160" s="19"/>
+      <c r="E160" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F160" s="1"/>
+    </row>
+    <row r="161" ht="15.75" customHeight="1">
+      <c r="A161" s="1"/>
+      <c r="B161" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="C161" s="19"/>
+      <c r="D161" s="27"/>
+      <c r="E161" s="26"/>
+      <c r="F161" s="1"/>
+    </row>
+    <row r="162" ht="15.75" customHeight="1">
+      <c r="A162" s="1"/>
+      <c r="B162" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="C162" s="19"/>
+      <c r="D162" s="19"/>
+      <c r="E162" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="F162" s="1"/>
+    </row>
+    <row r="163" ht="15.75" customHeight="1">
+      <c r="A163" s="1"/>
+      <c r="B163" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="C163" s="19"/>
+      <c r="D163" s="19"/>
+      <c r="E163" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="F163" s="1"/>
+    </row>
+    <row r="164" ht="15.75" customHeight="1">
+      <c r="A164" s="1"/>
+      <c r="B164" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="C164" s="19"/>
+      <c r="D164" s="19"/>
+      <c r="E164" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="F164" s="1"/>
+    </row>
+    <row r="165" ht="15.75" customHeight="1">
+      <c r="A165" s="1"/>
+      <c r="B165" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="C165" s="19"/>
+      <c r="D165" s="19"/>
+      <c r="E165" s="26"/>
+      <c r="F165" s="1"/>
+    </row>
+    <row r="166" ht="15.75" customHeight="1">
+      <c r="A166" s="1"/>
+      <c r="B166" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="C166" s="19"/>
+      <c r="D166" s="19"/>
+      <c r="E166" s="26"/>
+      <c r="F166" s="1"/>
+    </row>
+    <row r="167" ht="15.75" customHeight="1">
+      <c r="A167" s="1"/>
+      <c r="B167" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="C167" s="19"/>
+      <c r="D167" s="19"/>
+      <c r="E167" s="26"/>
+      <c r="F167" s="1"/>
+    </row>
+    <row r="168" ht="15.75" customHeight="1">
+      <c r="A168" s="1"/>
+      <c r="B168" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="D168" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E168" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="F168" s="1"/>
+    </row>
+    <row r="169" ht="15.75" customHeight="1">
+      <c r="A169" s="1"/>
+      <c r="B169" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="C169" s="19"/>
+      <c r="D169" s="19"/>
+      <c r="E169" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F169" s="1"/>
+    </row>
+    <row r="170" ht="15.75" customHeight="1">
+      <c r="A170" s="1"/>
+      <c r="B170" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="C170" s="19"/>
+      <c r="D170" s="19"/>
+      <c r="E170" s="26"/>
+      <c r="F170" s="1"/>
+    </row>
+    <row r="171" ht="15.75" customHeight="1">
+      <c r="A171" s="1"/>
+      <c r="B171" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="C171" s="19"/>
+      <c r="D171" s="19"/>
+      <c r="E171" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="F171" s="1"/>
+    </row>
+    <row r="172" ht="15.75" customHeight="1">
+      <c r="A172" s="1"/>
+      <c r="B172" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="C172" s="19"/>
+      <c r="D172" s="19"/>
+      <c r="E172" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="F172" s="1"/>
+    </row>
+    <row r="173" ht="15.75" customHeight="1">
+      <c r="A173" s="1"/>
+      <c r="B173" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="C173" s="19"/>
+      <c r="D173" s="19"/>
+      <c r="E173" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="F173" s="1"/>
+    </row>
+    <row r="174" ht="15.75" customHeight="1">
+      <c r="A174" s="1"/>
+      <c r="B174" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="C174" s="19"/>
+      <c r="D174" s="19"/>
+      <c r="E174" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="F174" s="1"/>
+    </row>
+    <row r="175" ht="15.75" customHeight="1">
+      <c r="A175" s="1"/>
+      <c r="B175" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="C175" s="19"/>
+      <c r="D175" s="19"/>
+      <c r="E175" s="26"/>
+      <c r="F175" s="1"/>
+    </row>
+    <row r="176" ht="15.75" customHeight="1">
+      <c r="A176" s="1"/>
+      <c r="B176" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="C176" s="19"/>
+      <c r="D176" s="19"/>
+      <c r="E176" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="F176" s="1"/>
+    </row>
+    <row r="177" ht="15.75" customHeight="1">
+      <c r="A177" s="1"/>
+      <c r="B177" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="C177" s="19"/>
+      <c r="D177" s="19"/>
+      <c r="E177" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="F177" s="1"/>
+    </row>
+    <row r="178" ht="15.75" customHeight="1">
+      <c r="A178" s="1"/>
+      <c r="B178" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="C178" s="19"/>
+      <c r="D178" s="19"/>
+      <c r="E178" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="F178" s="1"/>
+    </row>
+    <row r="179" ht="15.75" customHeight="1">
+      <c r="A179" s="1"/>
+      <c r="B179" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="C179" s="19"/>
+      <c r="D179" s="19"/>
+      <c r="E179" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="F179" s="1"/>
+    </row>
+    <row r="180" ht="15.75" customHeight="1">
+      <c r="A180" s="1"/>
+      <c r="B180" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="C180" s="19"/>
+      <c r="D180" s="19"/>
+      <c r="E180" s="26"/>
+      <c r="F180" s="1"/>
+    </row>
+    <row r="181" ht="15.75" customHeight="1">
+      <c r="A181" s="1"/>
+      <c r="B181" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="C181" s="19"/>
+      <c r="D181" s="19"/>
+      <c r="E181" s="26"/>
+      <c r="F181" s="1"/>
+    </row>
+    <row r="182" ht="15.75" customHeight="1">
+      <c r="A182" s="1"/>
+      <c r="B182" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="C182" s="19"/>
+      <c r="D182" s="19"/>
+      <c r="E182" s="26"/>
+      <c r="F182" s="1"/>
+    </row>
+    <row r="183" ht="15.75" customHeight="1">
+      <c r="A183" s="1"/>
+      <c r="B183" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="C183" s="19"/>
+      <c r="D183" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E183" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="F183" s="1"/>
+    </row>
+    <row r="184" ht="15.75" customHeight="1">
+      <c r="A184" s="1"/>
+      <c r="B184" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="C184" s="19"/>
+      <c r="D184" s="19"/>
+      <c r="E184" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F184" s="1"/>
+    </row>
+    <row r="185" ht="15.75" customHeight="1">
+      <c r="A185" s="1"/>
+      <c r="B185" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="C185" s="19"/>
+      <c r="D185" s="19"/>
+      <c r="E185" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="F185" s="1"/>
+    </row>
+    <row r="186" ht="15.75" customHeight="1">
+      <c r="A186" s="1"/>
+      <c r="B186" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="C186" s="19"/>
+      <c r="D186" s="19"/>
+      <c r="E186" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="F186" s="1"/>
+    </row>
+    <row r="187" ht="15.75" customHeight="1">
+      <c r="A187" s="1"/>
+      <c r="B187" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="C187" s="19"/>
+      <c r="D187" s="19"/>
+      <c r="E187" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="F187" s="1"/>
+    </row>
+    <row r="188" ht="15.75" customHeight="1">
+      <c r="A188" s="1"/>
+      <c r="B188" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="C188" s="29"/>
+      <c r="D188" s="29"/>
+      <c r="E188" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="F188" s="1"/>
+    </row>
+    <row r="189" ht="15.75" customHeight="1">
+      <c r="A189" s="1"/>
+      <c r="B189" s="31"/>
+      <c r="C189" s="2"/>
+      <c r="D189" s="2"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1"/>
+    </row>
+    <row r="190" ht="15.75" customHeight="1">
+      <c r="A190" s="1"/>
+      <c r="B190" s="31"/>
+      <c r="C190" s="2"/>
+      <c r="D190" s="2"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="1"/>
+    </row>
+    <row r="191" ht="15.75" customHeight="1">
+      <c r="A191" s="1"/>
+      <c r="B191" s="31"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1"/>
+    </row>
+    <row r="192" ht="15.75" customHeight="1">
+      <c r="A192" s="1"/>
+      <c r="B192" s="31"/>
+      <c r="C192" s="2"/>
+      <c r="D192" s="2"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1"/>
+    </row>
+    <row r="193" ht="15.75" customHeight="1">
+      <c r="A193" s="1"/>
+      <c r="B193" s="31"/>
+      <c r="C193" s="2"/>
+      <c r="D193" s="2"/>
+      <c r="E193" s="1"/>
+      <c r="F193" s="1"/>
+    </row>
+    <row r="194" ht="15.75" customHeight="1">
+      <c r="A194" s="1"/>
+      <c r="B194" s="31"/>
+      <c r="C194" s="2"/>
+      <c r="D194" s="2"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="1"/>
+    </row>
+    <row r="195" ht="15.75" customHeight="1">
+      <c r="A195" s="1"/>
+      <c r="B195" s="31"/>
+      <c r="C195" s="2"/>
+      <c r="D195" s="2"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1"/>
+    </row>
+    <row r="196" ht="15.75" customHeight="1">
+      <c r="A196" s="1"/>
+      <c r="B196" s="31"/>
+      <c r="C196" s="2"/>
+      <c r="D196" s="2"/>
+      <c r="E196" s="1"/>
+      <c r="F196" s="1"/>
+    </row>
+    <row r="197" ht="15.75" customHeight="1">
+      <c r="A197" s="1"/>
+      <c r="B197" s="31"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="2"/>
+      <c r="E197" s="1"/>
+      <c r="F197" s="1"/>
+    </row>
+    <row r="198" ht="15.75" customHeight="1">
+      <c r="A198" s="1"/>
+      <c r="B198" s="31"/>
+      <c r="C198" s="2"/>
+      <c r="D198" s="2"/>
+      <c r="E198" s="1"/>
+      <c r="F198" s="1"/>
+    </row>
+    <row r="199" ht="15.75" customHeight="1">
+      <c r="A199" s="1"/>
+      <c r="B199" s="31"/>
+      <c r="C199" s="2"/>
+      <c r="D199" s="2"/>
+      <c r="E199" s="1"/>
+      <c r="F199" s="1"/>
+    </row>
+    <row r="200" ht="15.75" customHeight="1">
+      <c r="A200" s="1"/>
+      <c r="B200" s="31"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="2"/>
+      <c r="E200" s="1"/>
+      <c r="F200" s="1"/>
+    </row>
+    <row r="201" ht="15.75" customHeight="1">
+      <c r="A201" s="1"/>
+      <c r="B201" s="31"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="2"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
+    </row>
+    <row r="202" ht="15.75" customHeight="1">
+      <c r="A202" s="1"/>
+      <c r="B202" s="31"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="2"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
+    </row>
+    <row r="203" ht="15.75" customHeight="1">
+      <c r="A203" s="1"/>
+      <c r="B203" s="31"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="2"/>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1"/>
+    </row>
+    <row r="204" ht="15.75" customHeight="1">
+      <c r="B204" s="32" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
+    <row r="1004" ht="15.75" customHeight="1"/>
+    <row r="1005" ht="15.75" customHeight="1"/>
+    <row r="1006" ht="15.75" customHeight="1"/>
+    <row r="1007" ht="15.75" customHeight="1"/>
+    <row r="1008" ht="15.75" customHeight="1"/>
+    <row r="1009" ht="15.75" customHeight="1"/>
+    <row r="1010" ht="15.75" customHeight="1"/>
+    <row r="1011" ht="15.75" customHeight="1"/>
+    <row r="1012" ht="15.75" customHeight="1"/>
+    <row r="1013" ht="15.75" customHeight="1"/>
+    <row r="1014" ht="15.75" customHeight="1"/>
+    <row r="1015" ht="15.75" customHeight="1"/>
+    <row r="1016" ht="15.75" customHeight="1"/>
+    <row r="1017" ht="15.75" customHeight="1"/>
+    <row r="1018" ht="15.75" customHeight="1"/>
+    <row r="1019" ht="15.75" customHeight="1"/>
+    <row r="1020" ht="15.75" customHeight="1"/>
+    <row r="1021" ht="15.75" customHeight="1"/>
+    <row r="1022" ht="15.75" customHeight="1"/>
+    <row r="1023" ht="15.75" customHeight="1"/>
+    <row r="1024" ht="15.75" customHeight="1"/>
+    <row r="1025" ht="15.75" customHeight="1"/>
+    <row r="1026" ht="15.75" customHeight="1"/>
+    <row r="1027" ht="15.75" customHeight="1"/>
+    <row r="1028" ht="15.75" customHeight="1"/>
+    <row r="1029" ht="15.75" customHeight="1"/>
+    <row r="1030" ht="15.75" customHeight="1"/>
+    <row r="1031" ht="15.75" customHeight="1"/>
+    <row r="1032" ht="15.75" customHeight="1"/>
+    <row r="1033" ht="15.75" customHeight="1"/>
+    <row r="1034" ht="15.75" customHeight="1"/>
+    <row r="1035" ht="15.75" customHeight="1"/>
+    <row r="1036" ht="15.75" customHeight="1"/>
+    <row r="1037" ht="15.75" customHeight="1"/>
+    <row r="1038" ht="15.75" customHeight="1"/>
+    <row r="1039" ht="15.75" customHeight="1"/>
+    <row r="1040" ht="15.75" customHeight="1"/>
+    <row r="1041" ht="15.75" customHeight="1"/>
+    <row r="1042" ht="15.75" customHeight="1"/>
+    <row r="1043" ht="15.75" customHeight="1"/>
+    <row r="1044" ht="15.75" customHeight="1"/>
+    <row r="1045" ht="15.75" customHeight="1"/>
+    <row r="1046" ht="15.75" customHeight="1"/>
+    <row r="1047" ht="15.75" customHeight="1"/>
+    <row r="1048" ht="15.75" customHeight="1"/>
+    <row r="1049" ht="15.75" customHeight="1"/>
+    <row r="1050" ht="15.75" customHeight="1"/>
+    <row r="1051" ht="15.75" customHeight="1"/>
+    <row r="1052" ht="15.75" customHeight="1"/>
+    <row r="1053" ht="15.75" customHeight="1"/>
+    <row r="1054" ht="15.75" customHeight="1"/>
+    <row r="1055" ht="15.75" customHeight="1"/>
+    <row r="1056" ht="15.75" customHeight="1"/>
+    <row r="1057" ht="15.75" customHeight="1"/>
+    <row r="1058" ht="15.75" customHeight="1"/>
+    <row r="1059" ht="15.75" customHeight="1"/>
+    <row r="1060" ht="15.75" customHeight="1"/>
+    <row r="1061" ht="15.75" customHeight="1"/>
+    <row r="1062" ht="15.75" customHeight="1"/>
+    <row r="1063" ht="15.75" customHeight="1"/>
+    <row r="1064" ht="15.75" customHeight="1"/>
+    <row r="1065" ht="15.75" customHeight="1"/>
+    <row r="1066" ht="15.75" customHeight="1"/>
+    <row r="1067" ht="15.75" customHeight="1"/>
+    <row r="1068" ht="15.75" customHeight="1"/>
+    <row r="1069" ht="15.75" customHeight="1"/>
+    <row r="1070" ht="15.75" customHeight="1"/>
+    <row r="1071" ht="15.75" customHeight="1"/>
+    <row r="1072" ht="15.75" customHeight="1"/>
+    <row r="1073" ht="15.75" customHeight="1"/>
+    <row r="1074" ht="15.75" customHeight="1"/>
+    <row r="1075" ht="15.75" customHeight="1"/>
+    <row r="1076" ht="15.75" customHeight="1"/>
+    <row r="1077" ht="15.75" customHeight="1"/>
+    <row r="1078" ht="15.75" customHeight="1"/>
+    <row r="1079" ht="15.75" customHeight="1"/>
+    <row r="1080" ht="15.75" customHeight="1"/>
+    <row r="1081" ht="15.75" customHeight="1"/>
+    <row r="1082" ht="15.75" customHeight="1"/>
+    <row r="1083" ht="15.75" customHeight="1"/>
+    <row r="1084" ht="15.75" customHeight="1"/>
+    <row r="1085" ht="15.75" customHeight="1"/>
+    <row r="1086" ht="15.75" customHeight="1"/>
+    <row r="1087" ht="15.75" customHeight="1"/>
+    <row r="1088" ht="15.75" customHeight="1"/>
+    <row r="1089" ht="15.75" customHeight="1"/>
+    <row r="1090" ht="15.75" customHeight="1"/>
+    <row r="1091" ht="15.75" customHeight="1"/>
+    <row r="1092" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
   <headerFooter>
-    <oddFooter>&amp;R_x000D_&amp;1#&amp;"Calibri"&amp;8&amp;K000000 Cisco Confidential</oddFooter>
+    <oddFooter>&amp;R_x000D_#000000 Cisco Confidential</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/mgmt/Openconfig-system_SONiC_mapping.xlsx
+++ b/doc/mgmt/Openconfig-system_SONiC_mapping.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="296">
   <si>
     <t>Openconfig Yang</t>
   </si>
@@ -335,6 +335,45 @@
   </si>
   <si>
     <t>SSH_SERVER:login_timeout</t>
+  </si>
+  <si>
+    <t>CREDENTIALS|SSH_HOST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    active-trusted-user-ca-keys-version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ca_keys_version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    active-trusted-user-ca-keys-created-on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ca_keys_created_on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      access-rejects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  access_rejects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      last-access-reject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  last_access_reject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      access-accepts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  access_accepts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      last-access-accept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  last_access_accept</t>
   </si>
   <si>
     <t>alarms</t>
@@ -475,12 +514,78 @@
     <t>AAA : login</t>
   </si>
   <si>
+    <t xml:space="preserve">    users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        state</t>
+  </si>
+  <si>
+    <t>CREDENTIALS|SSH_ACCOUNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          password-version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  password_version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          password-created-on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  password_created_on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          authorized-principals-list-version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  principals_version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          authorized-principals-list-created-on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  principals_created_on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          authorized-keys-list-version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  keys_version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          authorized-keys-list-created-on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  keys_created_on</t>
+  </si>
+  <si>
     <t xml:space="preserve">  authorization</t>
   </si>
   <si>
     <t xml:space="preserve">      authorization-method</t>
   </si>
   <si>
+    <t>CREDENTIALS|AUTHZ_POLICY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    grpc-authz-policy-version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  authz_version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    grpc-authz-policy-created-on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  authz_created_on</t>
+  </si>
+  <si>
     <t xml:space="preserve">  accounting</t>
   </si>
   <si>
@@ -682,9 +787,6 @@
     <t xml:space="preserve">      connection</t>
   </si>
   <si>
-    <t xml:space="preserve">        state</t>
-  </si>
-  <si>
     <t>COUNTERS_DB</t>
   </si>
   <si>
@@ -779,6 +881,36 @@
   </si>
   <si>
     <t xml:space="preserve">            last-access-accept</t>
+  </si>
+  <si>
+    <t>gnmi-pathz-policies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  policies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      state</t>
+  </si>
+  <si>
+    <t>CREDENTIALS|PATHZ_POLICY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        instance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  pathz_version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        created-on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  pathz_created_on</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -997,7 +1129,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1048,6 +1180,12 @@
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -1058,15 +1196,15 @@
     <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -1300,7 +1438,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="2.33"/>
-    <col customWidth="1" min="2" max="2" width="28.0"/>
+    <col customWidth="1" min="2" max="2" width="36.22"/>
     <col customWidth="1" min="3" max="3" width="25.0"/>
     <col customWidth="1" min="4" max="4" width="14.11"/>
     <col customWidth="1" min="5" max="5" width="43.11"/>
@@ -2202,121 +2340,123 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="1"/>
-      <c r="B73" s="10"/>
+      <c r="B73" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="12"/>
+      <c r="D73" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>108</v>
+      </c>
       <c r="F73" s="1"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
-      <c r="E74" s="12"/>
+      <c r="E74" s="16" t="s">
+        <v>110</v>
+      </c>
       <c r="F74" s="1"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="14" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
-      <c r="E75" s="12"/>
+      <c r="E75" s="16" t="s">
+        <v>112</v>
+      </c>
       <c r="F75" s="1"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="14" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="C76" s="11"/>
-      <c r="D76" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E76" s="16" t="s">
-        <v>110</v>
-      </c>
+      <c r="D76" s="11"/>
+      <c r="E76" s="12"/>
       <c r="F76" s="1"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="14" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
       <c r="E77" s="16" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F77" s="1"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
       <c r="E78" s="16" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="F78" s="1"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="14" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
       <c r="E79" s="16" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F79" s="1"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="14" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
       <c r="E80" s="16" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F80" s="1"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="1"/>
-      <c r="B81" s="14" t="s">
-        <v>118</v>
-      </c>
+      <c r="B81" s="10"/>
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
-      <c r="E81" s="16" t="s">
-        <v>54</v>
-      </c>
+      <c r="E81" s="12"/>
       <c r="F81" s="1"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C82" s="11"/>
       <c r="D82" s="11"/>
-      <c r="E82" s="16" t="s">
-        <v>120</v>
-      </c>
+      <c r="E82" s="12"/>
       <c r="F82" s="1"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="1"/>
-      <c r="B83" s="10"/>
+      <c r="B83" s="14" t="s">
+        <v>122</v>
+      </c>
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
       <c r="E83" s="12"/>
@@ -2324,134 +2464,112 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="1"/>
-      <c r="B84" s="10" t="s">
-        <v>121</v>
+      <c r="B84" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="12"/>
+      <c r="D84" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>123</v>
+      </c>
       <c r="F84" s="1"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="1"/>
-      <c r="B85" s="10" t="s">
-        <v>122</v>
+      <c r="B85" s="14" t="s">
+        <v>124</v>
       </c>
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
-      <c r="E85" s="12"/>
+      <c r="E85" s="16" t="s">
+        <v>125</v>
+      </c>
       <c r="F85" s="1"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="1"/>
-      <c r="B86" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E86" s="12" t="s">
-        <v>125</v>
+      <c r="B86" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="F86" s="1"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="1"/>
-      <c r="B87" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D87" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E87" s="12" t="s">
+      <c r="B87" s="14" t="s">
         <v>127</v>
+      </c>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="F87" s="1"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="1"/>
-      <c r="B88" s="10" t="s">
-        <v>90</v>
+      <c r="B88" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
-      <c r="E88" s="12"/>
+      <c r="E88" s="16" t="s">
+        <v>130</v>
+      </c>
       <c r="F88" s="1"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="1"/>
-      <c r="B89" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C89" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D89" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E89" s="12" t="s">
-        <v>129</v>
+      <c r="B89" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="16" t="s">
+        <v>54</v>
       </c>
       <c r="F89" s="1"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="1"/>
-      <c r="B90" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D90" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E90" s="12" t="s">
-        <v>130</v>
+      <c r="B90" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="16" t="s">
+        <v>133</v>
       </c>
       <c r="F90" s="1"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="1"/>
-      <c r="B91" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C91" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D91" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E91" s="12" t="s">
-        <v>131</v>
-      </c>
+      <c r="B91" s="10"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="12"/>
       <c r="F91" s="1"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C92" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D92" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E92" s="12" t="s">
-        <v>133</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="12"/>
       <c r="F92" s="1"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
@@ -2461,197 +2579,203 @@
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="12"/>
+        <v>136</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>138</v>
+      </c>
       <c r="F94" s="1"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="12"/>
+        <v>139</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" s="12" t="s">
+        <v>140</v>
+      </c>
       <c r="F95" s="1"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C96" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D96" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E96" s="12" t="s">
-        <v>138</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="12"/>
       <c r="F96" s="1"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="12"/>
+        <v>141</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>142</v>
+      </c>
       <c r="F97" s="1"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="12"/>
+        <v>102</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>143</v>
+      </c>
       <c r="F98" s="1"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="10" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="D99" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F99" s="1"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="1"/>
-      <c r="B100" s="10"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="12"/>
+      <c r="B100" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>146</v>
+      </c>
       <c r="F100" s="1"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="1"/>
-      <c r="B101" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
+      <c r="B101" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
       <c r="E101" s="12"/>
       <c r="F101" s="1"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="1"/>
-      <c r="B102" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="C102" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="D102" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E102" s="12" t="s">
-        <v>145</v>
-      </c>
+      <c r="B102" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="12"/>
       <c r="F102" s="1"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="1"/>
-      <c r="B103" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="C103" s="19"/>
-      <c r="D103" s="19"/>
+      <c r="B103" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
       <c r="E103" s="12"/>
       <c r="F103" s="1"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="1"/>
-      <c r="B104" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="C104" s="19" t="s">
-        <v>144</v>
+      <c r="B104" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="D104" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F104" s="1"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="1"/>
-      <c r="B105" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="C105" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="D105" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E105" s="12" t="s">
-        <v>145</v>
-      </c>
+      <c r="B105" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="12"/>
       <c r="F105" s="1"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="1"/>
-      <c r="B106" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="C106" s="19"/>
-      <c r="D106" s="19"/>
+      <c r="B106" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
       <c r="E106" s="12"/>
       <c r="F106" s="1"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="1"/>
-      <c r="B107" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="C107" s="19" t="s">
-        <v>144</v>
+      <c r="B107" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="D107" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E107" s="12" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F107" s="1"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="1"/>
-      <c r="B108" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="C108" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="D108" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E108" s="12" t="s">
-        <v>145</v>
-      </c>
+      <c r="B108" s="10"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="12"/>
       <c r="F108" s="1"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="18" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="C109" s="19"/>
       <c r="D109" s="19"/>
@@ -2661,23 +2785,23 @@
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="18" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="D110" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E110" s="12" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="F110" s="1"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="18" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C111" s="19"/>
       <c r="D111" s="19"/>
@@ -2687,265 +2811,263 @@
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="C112" s="19"/>
-      <c r="D112" s="19"/>
-      <c r="E112" s="12"/>
+        <v>160</v>
+      </c>
+      <c r="C112" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112" s="12" t="s">
+        <v>161</v>
+      </c>
       <c r="F112" s="1"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="1"/>
-      <c r="B113" s="18" t="s">
-        <v>155</v>
+      <c r="B113" s="20" t="s">
+        <v>162</v>
       </c>
       <c r="C113" s="19"/>
-      <c r="D113" s="19"/>
+      <c r="D113" s="11"/>
       <c r="E113" s="12"/>
       <c r="F113" s="1"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="1"/>
-      <c r="B114" s="18" t="s">
-        <v>156</v>
+      <c r="B114" s="20" t="s">
+        <v>163</v>
       </c>
       <c r="C114" s="19"/>
-      <c r="D114" s="19"/>
+      <c r="D114" s="11"/>
       <c r="E114" s="12"/>
       <c r="F114" s="1"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="1"/>
-      <c r="B115" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="C115" s="19"/>
-      <c r="D115" s="19"/>
-      <c r="E115" s="12"/>
+      <c r="B115" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C115" s="21"/>
+      <c r="D115" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E115" s="16" t="s">
+        <v>165</v>
+      </c>
       <c r="F115" s="1"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="1"/>
-      <c r="B116" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="C116" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D116" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E116" s="12" t="s">
-        <v>160</v>
+      <c r="B116" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C116" s="19"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="F116" s="1"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="1"/>
-      <c r="B117" s="18" t="s">
-        <v>161</v>
+      <c r="B117" s="20" t="s">
+        <v>167</v>
       </c>
       <c r="C117" s="19"/>
-      <c r="D117" s="19"/>
-      <c r="E117" s="12"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="F117" s="1"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="1"/>
-      <c r="B118" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="C118" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D118" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E118" s="12" t="s">
-        <v>160</v>
+      <c r="B118" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C118" s="19"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="16" t="s">
+        <v>170</v>
       </c>
       <c r="F118" s="1"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="1"/>
-      <c r="B119" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="C119" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D119" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E119" s="12" t="s">
-        <v>164</v>
+      <c r="B119" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C119" s="19"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="16" t="s">
+        <v>172</v>
       </c>
       <c r="F119" s="1"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="1"/>
-      <c r="B120" s="18" t="s">
-        <v>165</v>
+      <c r="B120" s="20" t="s">
+        <v>173</v>
       </c>
       <c r="C120" s="19"/>
-      <c r="D120" s="19"/>
-      <c r="E120" s="12"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="16" t="s">
+        <v>174</v>
+      </c>
       <c r="F120" s="1"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="1"/>
-      <c r="B121" s="18" t="s">
-        <v>166</v>
+      <c r="B121" s="20" t="s">
+        <v>175</v>
       </c>
       <c r="C121" s="19"/>
-      <c r="D121" s="19"/>
-      <c r="E121" s="12"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="16" t="s">
+        <v>176</v>
+      </c>
       <c r="F121" s="1"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="1"/>
-      <c r="B122" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="C122" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D122" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E122" s="12" t="s">
-        <v>168</v>
+      <c r="B122" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C122" s="19"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="16" t="s">
+        <v>178</v>
       </c>
       <c r="F122" s="1"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="18" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C123" s="19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D123" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E123" s="12" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="F123" s="1"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="C124" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="D124" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E124" s="12" t="s">
-        <v>172</v>
-      </c>
+      <c r="C124" s="19"/>
+      <c r="D124" s="19"/>
+      <c r="E124" s="12"/>
       <c r="F124" s="1"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="C125" s="19"/>
-      <c r="D125" s="19"/>
-      <c r="E125" s="12"/>
+        <v>180</v>
+      </c>
+      <c r="C125" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E125" s="12" t="s">
+        <v>161</v>
+      </c>
       <c r="F125" s="1"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="1"/>
-      <c r="B126" s="18" t="s">
-        <v>174</v>
+      <c r="B126" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="C126" s="19"/>
-      <c r="D126" s="19"/>
-      <c r="E126" s="12"/>
+      <c r="D126" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E126" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="F126" s="1"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="1"/>
-      <c r="B127" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="C127" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="D127" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E127" s="12" t="s">
-        <v>177</v>
+      <c r="B127" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C127" s="19"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="16" t="s">
+        <v>183</v>
       </c>
       <c r="F127" s="1"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="1"/>
-      <c r="B128" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="C128" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="D128" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E128" s="12" t="s">
-        <v>179</v>
+      <c r="B128" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C128" s="19"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="16" t="s">
+        <v>185</v>
       </c>
       <c r="F128" s="1"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="18" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="D129" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E129" s="12" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="F129" s="1"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="C130" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="D130" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E130" s="12" t="s">
-        <v>183</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="C130" s="19"/>
+      <c r="D130" s="19"/>
+      <c r="E130" s="12"/>
       <c r="F130" s="1"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="1"/>
-      <c r="B131" s="18"/>
-      <c r="C131" s="19"/>
-      <c r="D131" s="19"/>
-      <c r="E131" s="12"/>
+      <c r="B131" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C131" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D131" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E131" s="12" t="s">
+        <v>161</v>
+      </c>
       <c r="F131" s="1"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="18" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C132" s="19"/>
       <c r="D132" s="19"/>
@@ -2955,35 +3077,27 @@
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="18" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C133" s="19"/>
-      <c r="D133" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E133" s="12" t="s">
-        <v>186</v>
-      </c>
+      <c r="D133" s="19"/>
+      <c r="E133" s="12"/>
       <c r="F133" s="1"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="18" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C134" s="19"/>
-      <c r="D134" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E134" s="12" t="s">
-        <v>188</v>
-      </c>
+      <c r="D134" s="19"/>
+      <c r="E134" s="12"/>
       <c r="F134" s="1"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="18" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C135" s="19"/>
       <c r="D135" s="19"/>
@@ -2993,76 +3107,76 @@
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C136" s="19"/>
-      <c r="D136" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E136" s="12" t="s">
-        <v>188</v>
-      </c>
+      <c r="D136" s="19"/>
+      <c r="E136" s="12"/>
       <c r="F136" s="1"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="C137" s="19"/>
-      <c r="D137" s="19" t="s">
-        <v>24</v>
+        <v>193</v>
+      </c>
+      <c r="C137" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="D137" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="E137" s="12" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F137" s="1"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="18" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C138" s="19"/>
-      <c r="D138" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E138" s="12" t="s">
-        <v>191</v>
-      </c>
+      <c r="D138" s="19"/>
+      <c r="E138" s="12"/>
       <c r="F138" s="1"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="C139" s="19"/>
-      <c r="D139" s="19" t="s">
-        <v>24</v>
+        <v>197</v>
+      </c>
+      <c r="C139" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="D139" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="E139" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F139" s="1"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="C140" s="19"/>
-      <c r="D140" s="19" t="s">
-        <v>24</v>
+        <v>198</v>
+      </c>
+      <c r="C140" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="D140" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F140" s="1"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="1"/>
-      <c r="B141" s="18"/>
+      <c r="B141" s="18" t="s">
+        <v>200</v>
+      </c>
       <c r="C141" s="19"/>
       <c r="D141" s="19"/>
       <c r="E141" s="12"/>
@@ -3071,7 +3185,7 @@
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="18" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C142" s="19"/>
       <c r="D142" s="19"/>
@@ -3081,680 +3195,959 @@
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="C143" s="19"/>
-      <c r="D143" s="19"/>
-      <c r="E143" s="12"/>
+        <v>202</v>
+      </c>
+      <c r="C143" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="D143" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E143" s="12" t="s">
+        <v>203</v>
+      </c>
       <c r="F143" s="1"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="1"/>
-      <c r="B144" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="C144" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="D144" s="22" t="s">
+      <c r="B144" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="C144" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="D144" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E144" s="23" t="s">
-        <v>200</v>
+      <c r="E144" s="12" t="s">
+        <v>205</v>
       </c>
       <c r="F144" s="1"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="1"/>
-      <c r="B145" s="18"/>
-      <c r="C145" s="19"/>
-      <c r="D145" s="11"/>
-      <c r="E145" s="12"/>
+      <c r="B145" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="C145" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="D145" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E145" s="12" t="s">
+        <v>207</v>
+      </c>
       <c r="F145" s="1"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="1"/>
-      <c r="B146" s="24" t="s">
-        <v>201</v>
+      <c r="B146" s="18" t="s">
+        <v>208</v>
       </c>
       <c r="C146" s="19"/>
-      <c r="D146" s="11"/>
+      <c r="D146" s="19"/>
       <c r="E146" s="12"/>
       <c r="F146" s="1"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="1"/>
-      <c r="B147" s="24" t="s">
-        <v>202</v>
+      <c r="B147" s="18" t="s">
+        <v>209</v>
       </c>
       <c r="C147" s="19"/>
-      <c r="D147" s="11"/>
+      <c r="D147" s="19"/>
       <c r="E147" s="12"/>
       <c r="F147" s="1"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="1"/>
-      <c r="B148" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C148" s="19"/>
-      <c r="D148" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E148" s="16" t="s">
-        <v>203</v>
+      <c r="B148" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="C148" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="D148" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E148" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="F148" s="1"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="1"/>
-      <c r="B149" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C149" s="19"/>
-      <c r="D149" s="19"/>
-      <c r="E149" s="25" t="s">
-        <v>46</v>
+      <c r="B149" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="C149" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="D149" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E149" s="12" t="s">
+        <v>214</v>
       </c>
       <c r="F149" s="1"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="1"/>
-      <c r="B150" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="C150" s="19"/>
-      <c r="D150" s="19"/>
-      <c r="E150" s="25" t="s">
-        <v>205</v>
+      <c r="B150" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="C150" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="D150" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E150" s="12" t="s">
+        <v>216</v>
       </c>
       <c r="F150" s="1"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="1"/>
-      <c r="B151" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="C151" s="19"/>
-      <c r="D151" s="19"/>
-      <c r="E151" s="25" t="s">
-        <v>207</v>
+      <c r="B151" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="C151" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="D151" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E151" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="F151" s="1"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="1"/>
-      <c r="B152" s="24" t="s">
-        <v>208</v>
-      </c>
+      <c r="B152" s="18"/>
       <c r="C152" s="19"/>
       <c r="D152" s="19"/>
-      <c r="E152" s="25" t="s">
-        <v>209</v>
-      </c>
+      <c r="E152" s="12"/>
       <c r="F152" s="1"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="1"/>
-      <c r="B153" s="24" t="s">
-        <v>210</v>
+      <c r="B153" s="18" t="s">
+        <v>219</v>
       </c>
       <c r="C153" s="19"/>
       <c r="D153" s="19"/>
-      <c r="E153" s="25" t="s">
-        <v>211</v>
-      </c>
+      <c r="E153" s="12"/>
       <c r="F153" s="1"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="1"/>
-      <c r="B154" s="24" t="s">
-        <v>212</v>
+      <c r="B154" s="18" t="s">
+        <v>220</v>
       </c>
       <c r="C154" s="19"/>
-      <c r="D154" s="19"/>
-      <c r="E154" s="25" t="s">
-        <v>213</v>
+      <c r="D154" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E154" s="12" t="s">
+        <v>221</v>
       </c>
       <c r="F154" s="1"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="1"/>
-      <c r="B155" s="24" t="s">
-        <v>214</v>
+      <c r="B155" s="18" t="s">
+        <v>222</v>
       </c>
       <c r="C155" s="19"/>
-      <c r="D155" s="19"/>
-      <c r="E155" s="25" t="s">
-        <v>215</v>
+      <c r="D155" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E155" s="12" t="s">
+        <v>223</v>
       </c>
       <c r="F155" s="1"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="1"/>
-      <c r="B156" s="24" t="s">
-        <v>216</v>
+      <c r="B156" s="18" t="s">
+        <v>224</v>
       </c>
       <c r="C156" s="19"/>
       <c r="D156" s="19"/>
-      <c r="E156" s="26"/>
+      <c r="E156" s="12"/>
       <c r="F156" s="1"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="1"/>
-      <c r="B157" s="24" t="s">
-        <v>217</v>
+      <c r="B157" s="18" t="s">
+        <v>225</v>
       </c>
       <c r="C157" s="19"/>
-      <c r="D157" s="19"/>
-      <c r="E157" s="26"/>
+      <c r="D157" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E157" s="12" t="s">
+        <v>223</v>
+      </c>
       <c r="F157" s="1"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="1"/>
-      <c r="B158" s="24" t="s">
-        <v>218</v>
+      <c r="B158" s="18" t="s">
+        <v>190</v>
       </c>
       <c r="C158" s="19"/>
-      <c r="D158" s="27" t="s">
-        <v>219</v>
-      </c>
-      <c r="E158" s="25" t="s">
-        <v>220</v>
+      <c r="D158" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E158" s="12" t="s">
+        <v>226</v>
       </c>
       <c r="F158" s="1"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="1"/>
-      <c r="B159" s="24" t="s">
-        <v>91</v>
+      <c r="B159" s="18" t="s">
+        <v>227</v>
       </c>
       <c r="C159" s="19"/>
-      <c r="D159" s="19"/>
-      <c r="E159" s="25" t="s">
-        <v>46</v>
+      <c r="D159" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E159" s="12" t="s">
+        <v>226</v>
       </c>
       <c r="F159" s="1"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="1"/>
-      <c r="B160" s="24" t="s">
-        <v>221</v>
+      <c r="B160" s="18" t="s">
+        <v>228</v>
       </c>
       <c r="C160" s="19"/>
-      <c r="D160" s="19"/>
-      <c r="E160" s="25" t="s">
-        <v>46</v>
+      <c r="D160" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E160" s="12" t="s">
+        <v>229</v>
       </c>
       <c r="F160" s="1"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="1"/>
-      <c r="B161" s="24" t="s">
-        <v>222</v>
+      <c r="B161" s="18" t="s">
+        <v>230</v>
       </c>
       <c r="C161" s="19"/>
-      <c r="D161" s="27"/>
-      <c r="E161" s="26"/>
+      <c r="D161" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E161" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="F161" s="1"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="1"/>
-      <c r="B162" s="24" t="s">
-        <v>223</v>
-      </c>
+      <c r="B162" s="18"/>
       <c r="C162" s="19"/>
       <c r="D162" s="19"/>
-      <c r="E162" s="25" t="s">
-        <v>224</v>
-      </c>
+      <c r="E162" s="12"/>
       <c r="F162" s="1"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="1"/>
-      <c r="B163" s="24" t="s">
-        <v>225</v>
+      <c r="B163" s="18" t="s">
+        <v>232</v>
       </c>
       <c r="C163" s="19"/>
       <c r="D163" s="19"/>
-      <c r="E163" s="25" t="s">
-        <v>226</v>
-      </c>
+      <c r="E163" s="12"/>
       <c r="F163" s="1"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="1"/>
-      <c r="B164" s="24" t="s">
-        <v>227</v>
+      <c r="B164" s="18" t="s">
+        <v>233</v>
       </c>
       <c r="C164" s="19"/>
       <c r="D164" s="19"/>
-      <c r="E164" s="25" t="s">
-        <v>228</v>
-      </c>
+      <c r="E164" s="12"/>
       <c r="F164" s="1"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="1"/>
-      <c r="B165" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="C165" s="19"/>
-      <c r="D165" s="19"/>
-      <c r="E165" s="26"/>
+      <c r="B165" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="C165" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D165" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E165" s="25" t="s">
+        <v>235</v>
+      </c>
       <c r="F165" s="1"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="1"/>
-      <c r="B166" s="24" t="s">
-        <v>230</v>
-      </c>
+      <c r="B166" s="18"/>
       <c r="C166" s="19"/>
-      <c r="D166" s="19"/>
-      <c r="E166" s="26"/>
+      <c r="D166" s="11"/>
+      <c r="E166" s="12"/>
       <c r="F166" s="1"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="1"/>
-      <c r="B167" s="24" t="s">
-        <v>231</v>
+      <c r="B167" s="20" t="s">
+        <v>236</v>
       </c>
       <c r="C167" s="19"/>
-      <c r="D167" s="19"/>
-      <c r="E167" s="26"/>
+      <c r="D167" s="11"/>
+      <c r="E167" s="12"/>
       <c r="F167" s="1"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="1"/>
-      <c r="B168" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="D168" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E168" s="25" t="s">
-        <v>233</v>
-      </c>
+      <c r="B168" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="C168" s="19"/>
+      <c r="D168" s="11"/>
+      <c r="E168" s="12"/>
       <c r="F168" s="1"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="1"/>
-      <c r="B169" s="24" t="s">
-        <v>234</v>
+      <c r="B169" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="C169" s="19"/>
-      <c r="D169" s="19"/>
-      <c r="E169" s="25" t="s">
-        <v>46</v>
+      <c r="D169" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E169" s="16" t="s">
+        <v>238</v>
       </c>
       <c r="F169" s="1"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="1"/>
-      <c r="B170" s="24" t="s">
-        <v>235</v>
+      <c r="B170" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="C170" s="19"/>
       <c r="D170" s="19"/>
-      <c r="E170" s="26"/>
+      <c r="E170" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="F170" s="1"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="1"/>
-      <c r="B171" s="24" t="s">
-        <v>236</v>
+      <c r="B171" s="20" t="s">
+        <v>239</v>
       </c>
       <c r="C171" s="19"/>
       <c r="D171" s="19"/>
-      <c r="E171" s="25" t="s">
-        <v>237</v>
+      <c r="E171" s="26" t="s">
+        <v>240</v>
       </c>
       <c r="F171" s="1"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="1"/>
-      <c r="B172" s="24" t="s">
-        <v>238</v>
+      <c r="B172" s="20" t="s">
+        <v>241</v>
       </c>
       <c r="C172" s="19"/>
       <c r="D172" s="19"/>
-      <c r="E172" s="25" t="s">
-        <v>239</v>
+      <c r="E172" s="26" t="s">
+        <v>242</v>
       </c>
       <c r="F172" s="1"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="1"/>
-      <c r="B173" s="24" t="s">
-        <v>240</v>
+      <c r="B173" s="20" t="s">
+        <v>243</v>
       </c>
       <c r="C173" s="19"/>
       <c r="D173" s="19"/>
-      <c r="E173" s="25" t="s">
-        <v>237</v>
+      <c r="E173" s="26" t="s">
+        <v>244</v>
       </c>
       <c r="F173" s="1"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="1"/>
-      <c r="B174" s="24" t="s">
-        <v>241</v>
+      <c r="B174" s="20" t="s">
+        <v>245</v>
       </c>
       <c r="C174" s="19"/>
       <c r="D174" s="19"/>
-      <c r="E174" s="25" t="s">
-        <v>239</v>
+      <c r="E174" s="26" t="s">
+        <v>246</v>
       </c>
       <c r="F174" s="1"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="1"/>
-      <c r="B175" s="24" t="s">
-        <v>242</v>
+      <c r="B175" s="20" t="s">
+        <v>247</v>
       </c>
       <c r="C175" s="19"/>
       <c r="D175" s="19"/>
-      <c r="E175" s="26"/>
+      <c r="E175" s="26" t="s">
+        <v>248</v>
+      </c>
       <c r="F175" s="1"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="1"/>
-      <c r="B176" s="24" t="s">
-        <v>236</v>
+      <c r="B176" s="20" t="s">
+        <v>249</v>
       </c>
       <c r="C176" s="19"/>
       <c r="D176" s="19"/>
-      <c r="E176" s="25" t="s">
-        <v>237</v>
+      <c r="E176" s="26" t="s">
+        <v>250</v>
       </c>
       <c r="F176" s="1"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="1"/>
-      <c r="B177" s="24" t="s">
-        <v>238</v>
+      <c r="B177" s="20" t="s">
+        <v>251</v>
       </c>
       <c r="C177" s="19"/>
       <c r="D177" s="19"/>
-      <c r="E177" s="25" t="s">
-        <v>239</v>
-      </c>
+      <c r="E177" s="27"/>
       <c r="F177" s="1"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="1"/>
-      <c r="B178" s="24" t="s">
-        <v>240</v>
+      <c r="B178" s="20" t="s">
+        <v>252</v>
       </c>
       <c r="C178" s="19"/>
       <c r="D178" s="19"/>
-      <c r="E178" s="25" t="s">
-        <v>237</v>
-      </c>
+      <c r="E178" s="27"/>
       <c r="F178" s="1"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="1"/>
-      <c r="B179" s="24" t="s">
-        <v>241</v>
+      <c r="B179" s="20" t="s">
+        <v>164</v>
       </c>
       <c r="C179" s="19"/>
-      <c r="D179" s="19"/>
-      <c r="E179" s="25" t="s">
-        <v>239</v>
+      <c r="D179" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="E179" s="26" t="s">
+        <v>254</v>
       </c>
       <c r="F179" s="1"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="1"/>
-      <c r="B180" s="24" t="s">
-        <v>243</v>
+      <c r="B180" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="C180" s="19"/>
       <c r="D180" s="19"/>
-      <c r="E180" s="26"/>
+      <c r="E180" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="F180" s="1"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="1"/>
-      <c r="B181" s="24" t="s">
-        <v>244</v>
+      <c r="B181" s="20" t="s">
+        <v>255</v>
       </c>
       <c r="C181" s="19"/>
       <c r="D181" s="19"/>
-      <c r="E181" s="26"/>
+      <c r="E181" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="F181" s="1"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="1"/>
-      <c r="B182" s="24" t="s">
-        <v>245</v>
+      <c r="B182" s="20" t="s">
+        <v>256</v>
       </c>
       <c r="C182" s="19"/>
-      <c r="D182" s="19"/>
-      <c r="E182" s="26"/>
+      <c r="D182" s="21"/>
+      <c r="E182" s="27"/>
       <c r="F182" s="1"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="1"/>
-      <c r="B183" s="24" t="s">
-        <v>232</v>
+      <c r="B183" s="20" t="s">
+        <v>257</v>
       </c>
       <c r="C183" s="19"/>
-      <c r="D183" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E183" s="25" t="s">
-        <v>246</v>
+      <c r="D183" s="19"/>
+      <c r="E183" s="26" t="s">
+        <v>258</v>
       </c>
       <c r="F183" s="1"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="1"/>
-      <c r="B184" s="24" t="s">
-        <v>234</v>
+      <c r="B184" s="20" t="s">
+        <v>259</v>
       </c>
       <c r="C184" s="19"/>
       <c r="D184" s="19"/>
-      <c r="E184" s="25" t="s">
-        <v>46</v>
+      <c r="E184" s="26" t="s">
+        <v>260</v>
       </c>
       <c r="F184" s="1"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="1"/>
-      <c r="B185" s="24" t="s">
-        <v>247</v>
+      <c r="B185" s="20" t="s">
+        <v>261</v>
       </c>
       <c r="C185" s="19"/>
       <c r="D185" s="19"/>
-      <c r="E185" s="25" t="s">
-        <v>237</v>
+      <c r="E185" s="26" t="s">
+        <v>262</v>
       </c>
       <c r="F185" s="1"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="1"/>
-      <c r="B186" s="24" t="s">
-        <v>248</v>
+      <c r="B186" s="20" t="s">
+        <v>263</v>
       </c>
       <c r="C186" s="19"/>
       <c r="D186" s="19"/>
-      <c r="E186" s="25" t="s">
-        <v>239</v>
-      </c>
+      <c r="E186" s="27"/>
       <c r="F186" s="1"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="1"/>
-      <c r="B187" s="24" t="s">
-        <v>249</v>
+      <c r="B187" s="20" t="s">
+        <v>264</v>
       </c>
       <c r="C187" s="19"/>
       <c r="D187" s="19"/>
-      <c r="E187" s="25" t="s">
-        <v>237</v>
-      </c>
+      <c r="E187" s="27"/>
       <c r="F187" s="1"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="1"/>
-      <c r="B188" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="C188" s="29"/>
-      <c r="D188" s="29"/>
-      <c r="E188" s="30" t="s">
-        <v>239</v>
-      </c>
+      <c r="B188" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="C188" s="19"/>
+      <c r="D188" s="19"/>
+      <c r="E188" s="27"/>
       <c r="F188" s="1"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="1"/>
-      <c r="B189" s="31"/>
-      <c r="C189" s="2"/>
-      <c r="D189" s="2"/>
-      <c r="E189" s="1"/>
+      <c r="B189" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="D189" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E189" s="26" t="s">
+        <v>267</v>
+      </c>
       <c r="F189" s="1"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="1"/>
-      <c r="B190" s="31"/>
-      <c r="C190" s="2"/>
-      <c r="D190" s="2"/>
-      <c r="E190" s="1"/>
+      <c r="B190" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="C190" s="19"/>
+      <c r="D190" s="19"/>
+      <c r="E190" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="F190" s="1"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="1"/>
-      <c r="B191" s="31"/>
-      <c r="C191" s="2"/>
-      <c r="D191" s="2"/>
-      <c r="E191" s="1"/>
+      <c r="B191" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C191" s="19"/>
+      <c r="D191" s="19"/>
+      <c r="E191" s="27"/>
       <c r="F191" s="1"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="1"/>
-      <c r="B192" s="31"/>
-      <c r="C192" s="2"/>
-      <c r="D192" s="2"/>
-      <c r="E192" s="1"/>
+      <c r="B192" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="C192" s="19"/>
+      <c r="D192" s="19"/>
+      <c r="E192" s="26" t="s">
+        <v>271</v>
+      </c>
       <c r="F192" s="1"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="1"/>
-      <c r="B193" s="31"/>
-      <c r="C193" s="2"/>
-      <c r="D193" s="2"/>
-      <c r="E193" s="1"/>
+      <c r="B193" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="C193" s="19"/>
+      <c r="D193" s="19"/>
+      <c r="E193" s="26" t="s">
+        <v>273</v>
+      </c>
       <c r="F193" s="1"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="1"/>
-      <c r="B194" s="31"/>
-      <c r="C194" s="2"/>
-      <c r="D194" s="2"/>
-      <c r="E194" s="1"/>
+      <c r="B194" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="C194" s="19"/>
+      <c r="D194" s="19"/>
+      <c r="E194" s="26" t="s">
+        <v>271</v>
+      </c>
       <c r="F194" s="1"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="1"/>
-      <c r="B195" s="31"/>
-      <c r="C195" s="2"/>
-      <c r="D195" s="2"/>
-      <c r="E195" s="1"/>
+      <c r="B195" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="C195" s="19"/>
+      <c r="D195" s="19"/>
+      <c r="E195" s="26" t="s">
+        <v>273</v>
+      </c>
       <c r="F195" s="1"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="1"/>
-      <c r="B196" s="31"/>
-      <c r="C196" s="2"/>
-      <c r="D196" s="2"/>
-      <c r="E196" s="1"/>
+      <c r="B196" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="C196" s="19"/>
+      <c r="D196" s="19"/>
+      <c r="E196" s="27"/>
       <c r="F196" s="1"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="1"/>
-      <c r="B197" s="31"/>
-      <c r="C197" s="2"/>
-      <c r="D197" s="2"/>
-      <c r="E197" s="1"/>
+      <c r="B197" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="C197" s="19"/>
+      <c r="D197" s="19"/>
+      <c r="E197" s="26" t="s">
+        <v>271</v>
+      </c>
       <c r="F197" s="1"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="1"/>
-      <c r="B198" s="31"/>
-      <c r="C198" s="2"/>
-      <c r="D198" s="2"/>
-      <c r="E198" s="1"/>
+      <c r="B198" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="C198" s="19"/>
+      <c r="D198" s="19"/>
+      <c r="E198" s="26" t="s">
+        <v>273</v>
+      </c>
       <c r="F198" s="1"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="1"/>
-      <c r="B199" s="31"/>
-      <c r="C199" s="2"/>
-      <c r="D199" s="2"/>
-      <c r="E199" s="1"/>
+      <c r="B199" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="C199" s="19"/>
+      <c r="D199" s="19"/>
+      <c r="E199" s="26" t="s">
+        <v>271</v>
+      </c>
       <c r="F199" s="1"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="1"/>
-      <c r="B200" s="31"/>
-      <c r="C200" s="2"/>
-      <c r="D200" s="2"/>
-      <c r="E200" s="1"/>
+      <c r="B200" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="C200" s="19"/>
+      <c r="D200" s="19"/>
+      <c r="E200" s="26" t="s">
+        <v>273</v>
+      </c>
       <c r="F200" s="1"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="1"/>
-      <c r="B201" s="31"/>
-      <c r="C201" s="2"/>
-      <c r="D201" s="2"/>
-      <c r="E201" s="1"/>
+      <c r="B201" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="C201" s="19"/>
+      <c r="D201" s="19"/>
+      <c r="E201" s="27"/>
       <c r="F201" s="1"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="1"/>
-      <c r="B202" s="31"/>
-      <c r="C202" s="2"/>
-      <c r="D202" s="2"/>
-      <c r="E202" s="1"/>
+      <c r="B202" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="C202" s="19"/>
+      <c r="D202" s="19"/>
+      <c r="E202" s="27"/>
       <c r="F202" s="1"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="1"/>
-      <c r="B203" s="31"/>
-      <c r="C203" s="2"/>
-      <c r="D203" s="2"/>
-      <c r="E203" s="1"/>
+      <c r="B203" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="C203" s="19"/>
+      <c r="D203" s="19"/>
+      <c r="E203" s="27"/>
       <c r="F203" s="1"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="B204" s="32" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
+      <c r="A204" s="1"/>
+      <c r="B204" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="C204" s="19"/>
+      <c r="D204" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E204" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="F204" s="1"/>
+    </row>
+    <row r="205" ht="15.75" customHeight="1">
+      <c r="A205" s="1"/>
+      <c r="B205" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="C205" s="19"/>
+      <c r="D205" s="19"/>
+      <c r="E205" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F205" s="1"/>
+    </row>
+    <row r="206" ht="15.75" customHeight="1">
+      <c r="A206" s="1"/>
+      <c r="B206" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="C206" s="19"/>
+      <c r="D206" s="19"/>
+      <c r="E206" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="F206" s="1"/>
+    </row>
+    <row r="207" ht="15.75" customHeight="1">
+      <c r="A207" s="1"/>
+      <c r="B207" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="C207" s="19"/>
+      <c r="D207" s="19"/>
+      <c r="E207" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="F207" s="1"/>
+    </row>
+    <row r="208" ht="15.75" customHeight="1">
+      <c r="A208" s="1"/>
+      <c r="B208" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="C208" s="23"/>
+      <c r="D208" s="23"/>
+      <c r="E208" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="F208" s="1"/>
+    </row>
+    <row r="209" ht="15.75" customHeight="1">
+      <c r="A209" s="1"/>
+      <c r="B209" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="C209" s="19"/>
+      <c r="D209" s="19"/>
+      <c r="E209" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="F209" s="1"/>
+    </row>
+    <row r="210" ht="15.75" customHeight="1">
+      <c r="A210" s="1"/>
+      <c r="B210" s="20"/>
+      <c r="C210" s="19"/>
+      <c r="D210" s="19"/>
+      <c r="E210" s="27"/>
+      <c r="F210" s="1"/>
+    </row>
+    <row r="211" ht="15.75" customHeight="1">
+      <c r="A211" s="1"/>
+      <c r="B211" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="C211" s="19"/>
+      <c r="D211" s="19"/>
+      <c r="E211" s="27"/>
+      <c r="F211" s="1"/>
+    </row>
+    <row r="212" ht="15.75" customHeight="1">
+      <c r="A212" s="1"/>
+      <c r="B212" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="C212" s="19"/>
+      <c r="D212" s="19"/>
+      <c r="E212" s="27"/>
+      <c r="F212" s="1"/>
+    </row>
+    <row r="213" ht="15.75" customHeight="1">
+      <c r="A213" s="1"/>
+      <c r="B213" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="C213" s="19"/>
+      <c r="D213" s="19"/>
+      <c r="E213" s="27"/>
+      <c r="F213" s="1"/>
+    </row>
+    <row r="214" ht="15.75" customHeight="1">
+      <c r="A214" s="1"/>
+      <c r="B214" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="C214" s="19"/>
+      <c r="D214" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E214" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="F214" s="1"/>
+    </row>
+    <row r="215" ht="15.75" customHeight="1">
+      <c r="A215" s="1"/>
+      <c r="B215" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="C215" s="19"/>
+      <c r="D215" s="19"/>
+      <c r="E215" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F215" s="1"/>
+    </row>
+    <row r="216" ht="15.75" customHeight="1">
+      <c r="A216" s="1"/>
+      <c r="B216" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="C216" s="19"/>
+      <c r="D216" s="19"/>
+      <c r="E216" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="F216" s="1"/>
+    </row>
+    <row r="217" ht="15.75" customHeight="1">
+      <c r="A217" s="1"/>
+      <c r="B217" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="C217" s="31"/>
+      <c r="D217" s="31"/>
+      <c r="E217" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="F217" s="1"/>
+    </row>
+    <row r="218" ht="15.75" customHeight="1">
+      <c r="A218" s="1"/>
+      <c r="B218" s="33"/>
+      <c r="C218" s="2"/>
+      <c r="D218" s="2"/>
+      <c r="E218" s="1"/>
+      <c r="F218" s="1"/>
+    </row>
+    <row r="219" ht="15.75" customHeight="1">
+      <c r="A219" s="1"/>
+      <c r="B219" s="33"/>
+      <c r="C219" s="2"/>
+      <c r="D219" s="2"/>
+      <c r="E219" s="1"/>
+      <c r="F219" s="1"/>
+    </row>
+    <row r="220" ht="15.75" customHeight="1">
+      <c r="A220" s="1"/>
+      <c r="B220" s="33"/>
+      <c r="C220" s="2"/>
+      <c r="D220" s="2"/>
+      <c r="E220" s="1"/>
+      <c r="F220" s="1"/>
+    </row>
+    <row r="221" ht="15.75" customHeight="1">
+      <c r="A221" s="1"/>
+      <c r="B221" s="33"/>
+      <c r="C221" s="2"/>
+      <c r="D221" s="2"/>
+      <c r="E221" s="1"/>
+      <c r="F221" s="1"/>
+    </row>
+    <row r="222" ht="15.75" customHeight="1">
+      <c r="A222" s="1"/>
+      <c r="B222" s="33"/>
+      <c r="C222" s="2"/>
+      <c r="D222" s="2"/>
+      <c r="E222" s="1"/>
+      <c r="F222" s="1"/>
+    </row>
+    <row r="223" ht="15.75" customHeight="1">
+      <c r="A223" s="1"/>
+      <c r="B223" s="33"/>
+      <c r="C223" s="2"/>
+      <c r="D223" s="2"/>
+      <c r="E223" s="1"/>
+      <c r="F223" s="1"/>
+    </row>
+    <row r="224" ht="15.75" customHeight="1">
+      <c r="A224" s="1"/>
+      <c r="B224" s="33"/>
+      <c r="C224" s="2"/>
+      <c r="D224" s="2"/>
+      <c r="E224" s="1"/>
+      <c r="F224" s="1"/>
+    </row>
+    <row r="225" ht="15.75" customHeight="1">
+      <c r="B225" s="34" t="s">
+        <v>295</v>
+      </c>
+    </row>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
     <row r="228" ht="15.75" customHeight="1"/>
@@ -4622,6 +5015,27 @@
     <row r="1090" ht="15.75" customHeight="1"/>
     <row r="1091" ht="15.75" customHeight="1"/>
     <row r="1092" ht="15.75" customHeight="1"/>
+    <row r="1093" ht="15.75" customHeight="1"/>
+    <row r="1094" ht="15.75" customHeight="1"/>
+    <row r="1095" ht="15.75" customHeight="1"/>
+    <row r="1096" ht="15.75" customHeight="1"/>
+    <row r="1097" ht="15.75" customHeight="1"/>
+    <row r="1098" ht="15.75" customHeight="1"/>
+    <row r="1099" ht="15.75" customHeight="1"/>
+    <row r="1100" ht="15.75" customHeight="1"/>
+    <row r="1101" ht="15.75" customHeight="1"/>
+    <row r="1102" ht="15.75" customHeight="1"/>
+    <row r="1103" ht="15.75" customHeight="1"/>
+    <row r="1104" ht="15.75" customHeight="1"/>
+    <row r="1105" ht="15.75" customHeight="1"/>
+    <row r="1106" ht="15.75" customHeight="1"/>
+    <row r="1107" ht="15.75" customHeight="1"/>
+    <row r="1108" ht="15.75" customHeight="1"/>
+    <row r="1109" ht="15.75" customHeight="1"/>
+    <row r="1110" ht="15.75" customHeight="1"/>
+    <row r="1111" ht="15.75" customHeight="1"/>
+    <row r="1112" ht="15.75" customHeight="1"/>
+    <row r="1113" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:E2"/>
